--- a/agent/models/cv_results/regGrB.xlsx
+++ b/agent/models/cv_results/regGrB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7454301357269287</v>
+        <v>0.8149031639099121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03075384980463658</v>
+        <v>0.03530517688529197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003597784042358399</v>
+        <v>0.003597688674926758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007990241526476014</v>
+        <v>0.0004895529076134402</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.2807311712704303</v>
+        <v>-0.3289256716009782</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3090564354534132</v>
+        <v>-0.2983352907914891</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.301926851949494</v>
+        <v>-0.2979359865978677</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2921199193078405</v>
+        <v>-0.3106238650407935</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.3118965977722325</v>
+        <v>-0.3152185026704568</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2991461951506821</v>
+        <v>-0.3102078633403171</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01146297813687381</v>
+        <v>0.01155156134644551</v>
       </c>
       <c r="U2" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -609,16 +609,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.474956035614014</v>
+        <v>1.692753553390503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05259564238464316</v>
+        <v>0.04728790924987274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004397201538085938</v>
+        <v>0.004999303817749023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007991553686581094</v>
+        <v>0.001267988723285244</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -649,28 +649,28 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>-0.2858546871867805</v>
+        <v>-0.3261523521095072</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3173851382595277</v>
+        <v>-0.3015755381273198</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3026347262723719</v>
+        <v>-0.3069063997445459</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2998712921489261</v>
+        <v>-0.3158489794387953</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.3112939641637834</v>
+        <v>-0.3144364039911639</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3034079616062779</v>
+        <v>-0.3129839346822664</v>
       </c>
       <c r="T3" t="n">
-        <v>0.010758939261019</v>
+        <v>0.008376315526081755</v>
       </c>
       <c r="U3" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -678,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5755198001861572</v>
+        <v>0.6110220432281495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05506309932500094</v>
+        <v>0.01077515046041159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003398275375366211</v>
+        <v>0.003197860717773437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007990122890776832</v>
+        <v>0.0003996154394381796</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -718,28 +718,28 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>-0.2636489202519612</v>
+        <v>-0.3004721521323809</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2939574432388054</v>
+        <v>-0.2684603789087914</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2887816123142449</v>
+        <v>-0.2667216269646721</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2671231095997134</v>
+        <v>-0.291186794052163</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2920467374806015</v>
+        <v>-0.2955112311664724</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2811115645770653</v>
+        <v>-0.2844704366448959</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01299265220647031</v>
+        <v>0.01410252241842182</v>
       </c>
       <c r="U4" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.224610424041748</v>
+        <v>1.312188291549683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05100471082962982</v>
+        <v>0.0663882268469876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004004621505737304</v>
+        <v>0.00379781723022461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006222109307425468</v>
+        <v>0.0007471942931433049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.2697814725719566</v>
+        <v>-0.2942387095682877</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2958139717429401</v>
+        <v>-0.2671589338479184</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2908116866165114</v>
+        <v>-0.2746846553908067</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2731271983725099</v>
+        <v>-0.2941593683726188</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2919621653705866</v>
+        <v>-0.2951172527746551</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2842992989349009</v>
+        <v>-0.2850717839908574</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01067053436790985</v>
+        <v>0.01180076945221297</v>
       </c>
       <c r="U5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -816,16 +816,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5326577186584472</v>
+        <v>0.4912955760955811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03820167511619744</v>
+        <v>0.007494193978223557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00319819450378418</v>
+        <v>0.002599143981933594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004005203751456577</v>
+        <v>0.0004898041161700017</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>-0.2712749372728634</v>
+        <v>-0.3028101250320846</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2920937925106477</v>
+        <v>-0.270645671878107</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2833637622927571</v>
+        <v>-0.2590005017794335</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.257034336289757</v>
+        <v>-0.2911609963572759</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2874087546212402</v>
+        <v>-0.2902995359205137</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.278235116597453</v>
+        <v>-0.282783366193483</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01265257856100513</v>
+        <v>0.01575243998329723</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -885,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.092375230789185</v>
+        <v>1.051549005508423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07317810020093335</v>
+        <v>0.008835824335394126</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00299830436706543</v>
+        <v>0.003198862075805664</v>
       </c>
       <c r="E7" t="n">
-        <v>7.448434520632414e-07</v>
+        <v>0.0003998280282381617</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -925,28 +925,28 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-0.2795072430984435</v>
+        <v>-0.2957974612345298</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2929447562766222</v>
+        <v>-0.2645821647126517</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2832901956424581</v>
+        <v>-0.2719250406985561</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.2647614532619703</v>
+        <v>-0.2936542731535752</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2863169330901748</v>
+        <v>-0.2907982593644208</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2813641162739338</v>
+        <v>-0.2833514398327467</v>
       </c>
       <c r="T7" t="n">
-        <v>0.009396252402949151</v>
+        <v>0.01264401225889464</v>
       </c>
       <c r="U7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -954,16 +954,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5611781120300293</v>
+        <v>0.597431230545044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007504205455406711</v>
+        <v>0.005189115592461037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00299830436706543</v>
+        <v>0.002997732162475586</v>
       </c>
       <c r="E8" t="n">
-        <v>8.971637593377485e-07</v>
+        <v>8.869683855885637e-07</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -994,28 +994,28 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>-0.2620040932279183</v>
+        <v>-0.3003479758223583</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.3050620767522992</v>
+        <v>-0.273748081597785</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2867979755752013</v>
+        <v>-0.264842483746261</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.2795956166508102</v>
+        <v>-0.3045027672882602</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2948891120606253</v>
+        <v>-0.2922570939418929</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2856697748533709</v>
+        <v>-0.2871396804793115</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01455534453742681</v>
+        <v>0.01535332975420845</v>
       </c>
       <c r="U8" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1023,16 +1023,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.143308401107788</v>
+        <v>1.274011564254761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00751199087961779</v>
+        <v>0.04385154363174968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003397560119628906</v>
+        <v>0.003798198699951172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000489512874885432</v>
+        <v>0.001164822328954451</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1063,28 +1063,28 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>-0.2627980660008203</v>
+        <v>-0.2983826046610051</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3047041206421316</v>
+        <v>-0.2724639101180111</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2879786064407082</v>
+        <v>-0.2697481697928262</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.2853554806529113</v>
+        <v>-0.3052202468469452</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.2960253108573096</v>
+        <v>-0.2938785300755555</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.2873723169187762</v>
+        <v>-0.2879386922988686</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01402565326886117</v>
+        <v>0.01423638365897259</v>
       </c>
       <c r="U9" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1092,16 +1092,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4858994007110596</v>
+        <v>0.5460623264312744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002923694065019767</v>
+        <v>0.01317617510866287</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002798557281494141</v>
+        <v>0.002398300170898438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003999474897823931</v>
+        <v>0.0004895512355844996</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>-0.2666245277692609</v>
+        <v>-0.2984332654617139</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.2938708242453703</v>
+        <v>-0.2631469226026192</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2776752548027491</v>
+        <v>-0.2697694424700002</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.2703663382376691</v>
+        <v>-0.2925857181589981</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.2845502908813901</v>
+        <v>-0.2829127449622331</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.2786174471872879</v>
+        <v>-0.2813696187311129</v>
       </c>
       <c r="T10" t="n">
-        <v>0.009804721184510392</v>
+        <v>0.01331150561107518</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1161,16 +1161,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.033094930648804</v>
+        <v>1.153486728668213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0109516422783256</v>
+        <v>0.04027661548514817</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00319819450378418</v>
+        <v>0.003598117828369141</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003998042397012926</v>
+        <v>0.001199650786972402</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1201,28 +1201,28 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-0.2683764703229213</v>
+        <v>-0.2911088615415002</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2972244037743612</v>
+        <v>-0.2644178593450162</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.27873400501157</v>
+        <v>-0.2697340109403157</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2767373221141814</v>
+        <v>-0.2934572905266038</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2869155817865736</v>
+        <v>-0.282215847826637</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2815975566019215</v>
+        <v>-0.2801867740360146</v>
       </c>
       <c r="T11" t="n">
-        <v>0.009788755526608767</v>
+        <v>0.01146677522862522</v>
       </c>
       <c r="U11" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1230,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.433113431930542</v>
+        <v>0.4593173980712891</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008621671651398256</v>
+        <v>0.01128260565476245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002798271179199219</v>
+        <v>0.00359649658203125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00039992333879854</v>
+        <v>0.0007982017229867895</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1270,28 +1270,28 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>-0.2684839987662086</v>
+        <v>-0.297852819306299</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.2924520200110278</v>
+        <v>-0.2713001226880953</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2815635461707419</v>
+        <v>-0.2594762021831549</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2595402590763942</v>
+        <v>-0.2941308229684054</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.281621437948735</v>
+        <v>-0.2851586669814472</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.2767322523946215</v>
+        <v>-0.2815837268254804</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0114713116165515</v>
+        <v>0.01434843788538285</v>
       </c>
       <c r="U12" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1299,16 +1299,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9507394790649414</v>
+        <v>1.01237587928772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01135268718949068</v>
+        <v>0.04036369768099405</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00279083251953125</v>
+        <v>0.003395748138427734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003973432166547082</v>
+        <v>0.0004868196193527216</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1339,28 +1339,28 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>-0.2716559703606422</v>
+        <v>-0.2910431014316573</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.294558298646499</v>
+        <v>-0.26746232942358</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2835861565052449</v>
+        <v>-0.2660886760994763</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.2666981541425176</v>
+        <v>-0.2921529328524696</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2825306485496689</v>
+        <v>-0.2874543105006804</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.2798058456409145</v>
+        <v>-0.2808402700615727</v>
       </c>
       <c r="T13" t="n">
-        <v>0.009773251396599307</v>
+        <v>0.01159653791830382</v>
       </c>
       <c r="U13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1368,16 +1368,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3943488121032715</v>
+        <v>0.4049495697021485</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01103390959483773</v>
+        <v>0.00495181052845746</v>
       </c>
       <c r="D14" t="n">
         <v>0.002798748016357422</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003998043818793966</v>
+        <v>0.0003998042965725403</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1408,28 +1408,28 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-0.2626056207810168</v>
+        <v>-0.3032356177602082</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2946783524483886</v>
+        <v>-0.2588793583392809</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2749121771532271</v>
+        <v>-0.2616152954991642</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.2629251332456794</v>
+        <v>-0.2942801645145595</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.2767922858156813</v>
+        <v>-0.2792591141395351</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.2743827138887986</v>
+        <v>-0.2794539100505495</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0117300928301839</v>
+        <v>0.01747543267389237</v>
       </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1437,16 +1437,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.938526201248169</v>
+        <v>0.927225399017334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07669842127886407</v>
+        <v>0.02144767237375972</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003598117828369141</v>
+        <v>0.002998638153076172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007991316850717353</v>
+        <v>6.975526255763909e-07</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>-0.2639100635009363</v>
+        <v>-0.294258299202896</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.2990244317542169</v>
+        <v>-0.2569525107996353</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2750069238322971</v>
+        <v>-0.2694491818324609</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.2672079656659143</v>
+        <v>-0.2891962761039121</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.2767421011471637</v>
+        <v>-0.2848840701790705</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.2763782971801056</v>
+        <v>-0.278948067623595</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01228342183996647</v>
+        <v>0.0137746030481864</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1506,16 +1506,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4015785694122315</v>
+        <v>0.4091471672058106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01579120074525873</v>
+        <v>0.01099392562893187</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003197526931762695</v>
+        <v>0.002798223495483399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000745764360959474</v>
+        <v>0.0007491951803678186</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>-0.2584923801516215</v>
+        <v>-0.3035093366933878</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2939305625824796</v>
+        <v>-0.2611600444637495</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.2728589031936468</v>
+        <v>-0.2611365610429522</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.2643391525091828</v>
+        <v>-0.2934219032169931</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.2796369776305401</v>
+        <v>-0.2819068120830527</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.2738515952134941</v>
+        <v>-0.2802269315000271</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0123613354560272</v>
+        <v>0.0170116906532838</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1575,16 +1575,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9556158065795899</v>
+        <v>0.9044387817382813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05534553608382623</v>
+        <v>0.0342959787990197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003798294067382813</v>
+        <v>0.002998924255371094</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007474489515937627</v>
+        <v>9.841808052325389e-07</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1615,28 +1615,28 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>-0.2596014081421698</v>
+        <v>-0.2936914566094581</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.3006475920555822</v>
+        <v>-0.260509259512664</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.2707774545036463</v>
+        <v>-0.264911633771562</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.2712190569120397</v>
+        <v>-0.288773588058174</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.2784371878596961</v>
+        <v>-0.2810667890751022</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.2761365398946268</v>
+        <v>-0.2777905454053921</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01365574367274973</v>
+        <v>0.01302850093137306</v>
       </c>
       <c r="U17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1644,16 +1644,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3455482482910156</v>
+        <v>0.358778715133667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01251748515825876</v>
+        <v>0.01137765705578172</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00359797477722168</v>
+        <v>0.002798032760620117</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004897016163920105</v>
+        <v>0.0003998046662354528</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1684,28 +1684,28 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>-0.2633566094310139</v>
+        <v>-0.2964735209661905</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2912218115333288</v>
+        <v>-0.2668366203406247</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.2760535810298368</v>
+        <v>-0.2542008551693911</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.2611990661922117</v>
+        <v>-0.294945736065958</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.274263230233007</v>
+        <v>-0.2798630417316082</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.2732188596838797</v>
+        <v>-0.2784639548547544</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01072354461807463</v>
+        <v>0.0162594215256909</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1713,16 +1713,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7869366645812989</v>
+        <v>0.8130969047546387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0416257707311263</v>
+        <v>0.02204625893889806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002998781204223633</v>
+        <v>0.002798223495483399</v>
       </c>
       <c r="E19" t="n">
-        <v>5.917393515582492e-07</v>
+        <v>0.0003996619281885758</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1753,28 +1753,28 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-0.2677505655889903</v>
+        <v>-0.287984795047828</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.2946745367384982</v>
+        <v>-0.2601557988294123</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.2748906417334696</v>
+        <v>-0.2613174717938444</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.2681448833474698</v>
+        <v>-0.2876688032171593</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.2736940062141097</v>
+        <v>-0.2799468735964976</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.2758309267245075</v>
+        <v>-0.2754147484969483</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009847839380956441</v>
+        <v>0.01233107327604087</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1782,16 +1782,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.061942148208618</v>
+        <v>1.145692110061646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02233088504064974</v>
+        <v>0.02832816260944627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003997087478637695</v>
+        <v>0.003797531127929688</v>
       </c>
       <c r="E20" t="n">
-        <v>1.288343056307439e-06</v>
+        <v>0.0003997115174347458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1822,28 +1822,28 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>-0.325612412626999</v>
+        <v>-0.3868687825999104</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.355055426315995</v>
+        <v>-0.3519633940074942</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.3778403983214766</v>
+        <v>-0.3535535632928585</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.3331834200240733</v>
+        <v>-0.3481590588020424</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.3605994988362062</v>
+        <v>-0.3709740756635849</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.35045823122495</v>
+        <v>-0.3623037748731781</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01891822608067982</v>
+        <v>0.01457515963748839</v>
       </c>
       <c r="U20" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
@@ -1851,16 +1851,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.116571044921875</v>
+        <v>2.346947717666626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04692775824901016</v>
+        <v>0.1121224845410846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005198764801025391</v>
+        <v>0.005797147750854492</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003991035120827927</v>
+        <v>0.001166179484398451</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1891,28 +1891,28 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>-0.3376917198486769</v>
+        <v>-0.3954745249540872</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.363299495837666</v>
+        <v>-0.3611548173293679</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.3848079845915976</v>
+        <v>-0.3697494232673518</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.3464692876623952</v>
+        <v>-0.3585342463429076</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.3681770695659721</v>
+        <v>-0.3829180513672547</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.3600891115012615</v>
+        <v>-0.3735662126521939</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01657641139897962</v>
+        <v>0.01387084468560606</v>
       </c>
       <c r="U21" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
@@ -1920,16 +1920,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.724352216720581</v>
+        <v>0.7803167343139649</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01375178853196157</v>
+        <v>0.02346622654987494</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00259857177734375</v>
+        <v>0.002998590469360352</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0004900186704299316</v>
+        <v>6.03156597169567e-07</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1960,28 +1960,28 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>-0.266235387491042</v>
+        <v>-0.3019252255842426</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.3029238489957728</v>
+        <v>-0.2783608722486997</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.2915484954259666</v>
+        <v>-0.2729898363752511</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.2703253604392619</v>
+        <v>-0.2952964068513201</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.2996345641660729</v>
+        <v>-0.3017328539230421</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.2861335313036232</v>
+        <v>-0.2900610389965111</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01509535614860101</v>
+        <v>0.01210552869151588</v>
       </c>
       <c r="U22" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1989,16 +1989,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.668168020248413</v>
+        <v>1.788293695449829</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01035500041488504</v>
+        <v>0.03433324826358864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004398059844970703</v>
+        <v>0.003997993469238281</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0004890448822055261</v>
+        <v>3.814697265625e-07</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2029,28 +2029,28 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>-0.2714641731809715</v>
+        <v>-0.2950487662628438</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.3076331201634583</v>
+        <v>-0.2786826699571789</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.2950447631714232</v>
+        <v>-0.2892490368622246</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.2800013492492932</v>
+        <v>-0.2981570220196101</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.304242189025711</v>
+        <v>-0.3056634033311775</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.2916771189581714</v>
+        <v>-0.2933601796866069</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01391907154302416</v>
+        <v>0.009050537224069994</v>
       </c>
       <c r="U23" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -2058,16 +2058,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5838386535644531</v>
+        <v>0.6164187431335449</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01324822102163242</v>
+        <v>0.03399855920288224</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00279850959777832</v>
+        <v>0.002798223495483399</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000399686072212908</v>
+        <v>0.0003995424381711211</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2098,28 +2098,28 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-0.2714684097918337</v>
+        <v>-0.3028253057455162</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.2926673571377339</v>
+        <v>-0.2760532383185131</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.2866695769979388</v>
+        <v>-0.2600431414764197</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.2595440041197241</v>
+        <v>-0.2907064529956651</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.2901528514758582</v>
+        <v>-0.2917653968181547</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.2801004399046177</v>
+        <v>-0.2842787070708538</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01264287107692644</v>
+        <v>0.01480786101584634</v>
       </c>
       <c r="U24" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -2127,16 +2127,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.423719263076782</v>
+        <v>1.54084644317627</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01541371238756842</v>
+        <v>0.02314857197174493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003198432922363281</v>
+        <v>0.003798055648803711</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0004000435960215484</v>
+        <v>0.0003999713778096149</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2167,28 +2167,28 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>-0.28280110237793</v>
+        <v>-0.2968528699640231</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.2969148192556328</v>
+        <v>-0.2722701308603312</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.2867996673575532</v>
+        <v>-0.2741204133895201</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.2715898044172445</v>
+        <v>-0.2919584250509107</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2895425795832888</v>
+        <v>-0.2901355949267121</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.2855295945983299</v>
+        <v>-0.2850674868382995</v>
       </c>
       <c r="T25" t="n">
-        <v>0.008355870916786049</v>
+        <v>0.009956673556823673</v>
       </c>
       <c r="U25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -2196,16 +2196,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6919719696044921</v>
+        <v>0.7405412673950196</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01375359611194463</v>
+        <v>0.03303733563046381</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00359797477722168</v>
+        <v>0.003198528289794922</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004896874082800279</v>
+        <v>0.0004001142441366472</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>-0.2724856745473351</v>
+        <v>-0.3072620090275036</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.3144454935296344</v>
+        <v>-0.2771376117956026</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.282854307421935</v>
+        <v>-0.2729855886083325</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.2841242203716684</v>
+        <v>-0.3058498660562835</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2978958981105305</v>
+        <v>-0.2963440973392592</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.2903611187962206</v>
+        <v>-0.2919158345653963</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01450250069248162</v>
+        <v>0.01432495651395444</v>
       </c>
       <c r="U26" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -2265,16 +2265,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.672055053710938</v>
+        <v>1.825471448898315</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02591214807587718</v>
+        <v>0.08236432790228233</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004197406768798828</v>
+        <v>0.004397439956665039</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0004002817015493474</v>
+        <v>0.0004901352159399084</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2305,28 +2305,28 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>-0.2761742556885222</v>
+        <v>-0.3121478878498666</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.3190805308923294</v>
+        <v>-0.2803285355484058</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.2837442925519716</v>
+        <v>-0.2826671171034452</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.292573226999664</v>
+        <v>-0.3028152124458177</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.2989131157265024</v>
+        <v>-0.3006819263470004</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.2940970843717979</v>
+        <v>-0.2957281358589071</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01468398437631336</v>
+        <v>0.01226468793607891</v>
       </c>
       <c r="U27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -2334,16 +2334,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.604625940322876</v>
+        <v>0.6266116142272949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0180445589363645</v>
+        <v>0.03108694422144371</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0031982421875</v>
+        <v>0.002798891067504883</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003995427796220759</v>
+        <v>0.0003999949176611147</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2374,28 +2374,28 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-0.2669066461997013</v>
+        <v>-0.2987434070850099</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.2977637672606631</v>
+        <v>-0.262917428109714</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.2715358893386509</v>
+        <v>-0.2720444997476174</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.2694659699392158</v>
+        <v>-0.2921410351916602</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.2864365086490612</v>
+        <v>-0.2897223544012907</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.2784217562774585</v>
+        <v>-0.2831137449070584</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0118200564887872</v>
+        <v>0.01341544952437386</v>
       </c>
       <c r="U28" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2403,16 +2403,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.498279142379761</v>
+        <v>1.58082275390625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02981199517344102</v>
+        <v>0.04798576922708187</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003998041152954102</v>
+        <v>0.003598165512084961</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0006321082397311227</v>
+        <v>0.0004898454247860563</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2443,25 +2443,25 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>-0.2722716438587597</v>
+        <v>-0.2940794772456989</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.3015112691414989</v>
+        <v>-0.2672508137771348</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2741726413136071</v>
+        <v>-0.2760887546196593</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.2783286129787133</v>
+        <v>-0.2934116193791143</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.2895420253909926</v>
+        <v>-0.2898451132462486</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2831652385367143</v>
+        <v>-0.2841351556535712</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0109560066278685</v>
+        <v>0.01065243161994545</v>
       </c>
       <c r="U29" t="n">
         <v>36</v>
@@ -2472,16 +2472,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4866989135742187</v>
+        <v>0.5044874668121337</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005757612354177339</v>
+        <v>0.02508728026416755</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002998733520507813</v>
+        <v>0.003198385238647461</v>
       </c>
       <c r="E30" t="n">
-        <v>7.168434323488669e-07</v>
+        <v>0.0003992322061480081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2512,25 +2512,25 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>-0.2682966479776531</v>
+        <v>-0.2953907355962844</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.2943759768562781</v>
+        <v>-0.2708940580715704</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.2776289901471585</v>
+        <v>-0.2601953866922295</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.25990695441101</v>
+        <v>-0.2921264489584561</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.2871235810353933</v>
+        <v>-0.2809787095173579</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.2774664300854986</v>
+        <v>-0.2799170677671797</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01242288092275056</v>
+        <v>0.01311479985935122</v>
       </c>
       <c r="U30" t="n">
         <v>17</v>
@@ -2541,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.26481819152832</v>
+        <v>1.326779794692993</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02035052466891613</v>
+        <v>0.04816501556801135</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003397750854492188</v>
+        <v>0.003997707366943359</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0004903296905844956</v>
+        <v>0.0006313550072047135</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2581,28 +2581,28 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>-0.2726405562875516</v>
+        <v>-0.2875471545751985</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.3008565575173985</v>
+        <v>-0.2698689699997549</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.2789927006681915</v>
+        <v>-0.2653974981727219</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.2678467067175169</v>
+        <v>-0.291827994583562</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2897980485634398</v>
+        <v>-0.2799802000351023</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.2820269139508197</v>
+        <v>-0.2789243634732679</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01194432457377602</v>
+        <v>0.01006923282959181</v>
       </c>
       <c r="U31" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2610,16 +2610,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4093464851379395</v>
+        <v>0.4465236663818359</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01763722231466158</v>
+        <v>0.01865796194026478</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002798891067504883</v>
+        <v>0.002998208999633789</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0004001141020686509</v>
+        <v>0.0006317312372394927</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2650,28 +2650,28 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>-0.2620980242793592</v>
+        <v>-0.3031216608509879</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.2948489867159202</v>
+        <v>-0.2596001050034786</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.2735993364401331</v>
+        <v>-0.2631143207311777</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.2624455521100171</v>
+        <v>-0.2917007959772701</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.2793112009311698</v>
+        <v>-0.2791487345237266</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.2744606200953199</v>
+        <v>-0.2793371234173282</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01214208442925736</v>
+        <v>0.01656097420649074</v>
       </c>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2679,16 +2679,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9935856342315674</v>
+        <v>1.057945156097412</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03851688915580129</v>
+        <v>0.02662618248604706</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00420074462890625</v>
+        <v>0.003598403930664062</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001937430692575289</v>
+        <v>0.00079927462948887</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2719,28 +2719,28 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>-0.2632056789239484</v>
+        <v>-0.2972089058125536</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.3043643539046645</v>
+        <v>-0.2639851465221462</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.275887235178611</v>
+        <v>-0.2693137002637208</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.2711172344986089</v>
+        <v>-0.2877052356474199</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.2812729739248847</v>
+        <v>-0.2839726942784242</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.2791694952861435</v>
+        <v>-0.2804371365048529</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01392595484152349</v>
+        <v>0.01217387767170995</v>
       </c>
       <c r="U33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -2748,16 +2748,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3857599258422851</v>
+        <v>0.4287349224090576</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01267350664855</v>
+        <v>0.005793037550071366</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002998065948486328</v>
+        <v>0.002798557281494141</v>
       </c>
       <c r="E34" t="n">
-        <v>4.623107774177865e-07</v>
+        <v>0.0004001856524922232</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2788,28 +2788,28 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>-0.2557747597368585</v>
+        <v>-0.3022456398528277</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.2948196861818108</v>
+        <v>-0.2643705286555389</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.2731859918657176</v>
+        <v>-0.259653862959119</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.2629091710112149</v>
+        <v>-0.2919661825967199</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.281288705361427</v>
+        <v>-0.2775340172448116</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.2735956628314057</v>
+        <v>-0.2791540462618034</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01372294134196915</v>
+        <v>0.01611711244427142</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2817,16 +2817,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9428169250488281</v>
+        <v>1.007775735855102</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01541287945204587</v>
+        <v>0.03287024874124927</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003997564315795898</v>
+        <v>0.003598737716674805</v>
       </c>
       <c r="E35" t="n">
-        <v>3.989505894346597e-07</v>
+        <v>0.0004899213346171704</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2857,28 +2857,28 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>-0.2576585975244461</v>
+        <v>-0.2931576586056921</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.3040406024236368</v>
+        <v>-0.2668327517242191</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.2731440547851703</v>
+        <v>-0.264747744447956</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.2718850471776617</v>
+        <v>-0.2898957294242933</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.2815438259396108</v>
+        <v>-0.2777856660271013</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.2776544255701051</v>
+        <v>-0.2784839100458523</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01526315874951521</v>
+        <v>0.01157987736206112</v>
       </c>
       <c r="U35" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2886,16 +2886,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3311948776245117</v>
+        <v>0.3547801971435547</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006277517547846913</v>
+        <v>0.01235340577869507</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002598857879638672</v>
+        <v>0.002998781204223633</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0004893760403272691</v>
+        <v>0.001095104578800967</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2926,28 +2926,28 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>-0.2625133404337249</v>
+        <v>-0.2966535993484786</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.2897869220288899</v>
+        <v>-0.2668418983838637</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.2764783145871948</v>
+        <v>-0.254508489743338</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.2602117203888686</v>
+        <v>-0.292902584170859</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.2741484346690548</v>
+        <v>-0.2801238715919314</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.2726277464215466</v>
+        <v>-0.2782060886476941</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01065866395378596</v>
+        <v>0.01581579297615804</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2955,16 +2955,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8220917701721191</v>
+        <v>0.8912480354309082</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01518964957217922</v>
+        <v>0.02745938321410578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002998828887939453</v>
+        <v>0.003798818588256836</v>
       </c>
       <c r="E37" t="n">
-        <v>1.305872339022556e-06</v>
+        <v>0.0007470163032124739</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2995,28 +2995,28 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>-0.2676756905433094</v>
+        <v>-0.2873783539288636</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.2961816445156654</v>
+        <v>-0.2621356052521017</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.2770563043607197</v>
+        <v>-0.2637853467554991</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.2662748083436017</v>
+        <v>-0.2871555169437667</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.2742781750641575</v>
+        <v>-0.2811666451615163</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.2762933245654907</v>
+        <v>-0.2763242936083495</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01072215015330114</v>
+        <v>0.01114899172593677</v>
       </c>
       <c r="U37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3024,16 +3024,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6963698387145996</v>
+        <v>0.7929092884063721</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004992225366960049</v>
+        <v>0.01249219748906897</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002996969223022461</v>
+        <v>0.003798341751098633</v>
       </c>
       <c r="E38" t="n">
-        <v>1.767516421589912e-06</v>
+        <v>0.0007487364201286566</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3064,28 +3064,28 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>-0.2874958855256215</v>
+        <v>-0.3188291062741368</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.3122182907263227</v>
+        <v>-0.2918425516102273</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.3048624505278181</v>
+        <v>-0.3022658933130168</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.29886979543003</v>
+        <v>-0.3279628144996123</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.3231211801773591</v>
+        <v>-0.3197517070559844</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.3053135204774303</v>
+        <v>-0.3121304145505955</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01203313565152751</v>
+        <v>0.01313413583254851</v>
       </c>
       <c r="U38" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -3093,16 +3093,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.353962802886963</v>
+        <v>1.538648509979248</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007133857780681697</v>
+        <v>0.02390718558547116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003998088836669922</v>
+        <v>0.00399785041809082</v>
       </c>
       <c r="E39" t="n">
-        <v>1.171894619698001e-06</v>
+        <v>0.0006322599350948642</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3133,28 +3133,28 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>-0.2876973473607226</v>
+        <v>-0.3203542949604469</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.3131499658125835</v>
+        <v>-0.2934639868190544</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.3057533958390808</v>
+        <v>-0.3047452739530895</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.3007496849934762</v>
+        <v>-0.3289061651634229</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.3258240942166813</v>
+        <v>-0.3201864453852546</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.3066348976445089</v>
+        <v>-0.3135312332562536</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01268633093098171</v>
+        <v>0.01270529032410878</v>
       </c>
       <c r="U39" t="n">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -3162,16 +3162,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5334696769714355</v>
+        <v>0.5856372356414795</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004618410543270756</v>
+        <v>0.01015225850984112</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002998781204223633</v>
+        <v>0.002998828887939453</v>
       </c>
       <c r="E40" t="n">
-        <v>1.101896286801466e-06</v>
+        <v>0.0006324853877818745</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3202,28 +3202,28 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-0.2666368310887008</v>
+        <v>-0.2926628126086562</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.3045000329585627</v>
+        <v>-0.2632301527905321</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.287816675894831</v>
+        <v>-0.2835265479604064</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.2659167492167109</v>
+        <v>-0.2980749074330488</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.2925442418860025</v>
+        <v>-0.3002679472454033</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.2834829062089615</v>
+        <v>-0.2875524736076094</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01506631407600969</v>
+        <v>0.01346331174262442</v>
       </c>
       <c r="U40" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -3231,16 +3231,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.087126970291138</v>
+        <v>1.189463901519775</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008055712638431065</v>
+        <v>0.02188063603262839</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003398418426513672</v>
+        <v>0.003198766708374024</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0004900769141725354</v>
+        <v>0.0003998757545913182</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3271,28 +3271,28 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>-0.2684735537174704</v>
+        <v>-0.2945034655099307</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.3048505415157448</v>
+        <v>-0.2713994361617783</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.2966101955497707</v>
+        <v>-0.2872721986622052</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.2714291792988703</v>
+        <v>-0.3047449063787946</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.2986302609928832</v>
+        <v>-0.3043944601860523</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.2879987462149479</v>
+        <v>-0.2924628933797522</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01501301342722081</v>
+        <v>0.01239343863505601</v>
       </c>
       <c r="U41" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -3300,16 +3300,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4848998069763183</v>
+        <v>0.5342680931091308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003541473103222694</v>
+        <v>0.01285532790016302</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002798604965209961</v>
+        <v>0.002599334716796875</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003999711504196038</v>
+        <v>0.0004899599742606576</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3340,28 +3340,28 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>-0.2727704710877769</v>
+        <v>-0.2970485845105341</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.2958703081771345</v>
+        <v>-0.2666010698549546</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.2840054962140861</v>
+        <v>-0.271951416839461</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.262709241373597</v>
+        <v>-0.2931077219786925</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.286106432423779</v>
+        <v>-0.2871195890275815</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2802923898552747</v>
+        <v>-0.2831656764422447</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01145432810370231</v>
+        <v>0.01189418883694203</v>
       </c>
       <c r="U42" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3369,16 +3369,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9967835903167724</v>
+        <v>1.087926721572876</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0103790088745199</v>
+        <v>0.01216738254150888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003197956085205078</v>
+        <v>0.003198862075805664</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0004001625102393087</v>
+        <v>0.00039935116269695</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3409,28 +3409,28 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>-0.2781355934843571</v>
+        <v>-0.2968688478367737</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.3020612539575385</v>
+        <v>-0.2720123746134527</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.2885371992465498</v>
+        <v>-0.2761210681558719</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.2691634642082598</v>
+        <v>-0.3008432347414068</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.2949363170752248</v>
+        <v>-0.2898998136583433</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.286566765594386</v>
+        <v>-0.2871490678011697</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01173005313448433</v>
+        <v>0.01131642339022479</v>
       </c>
       <c r="U43" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -3438,16 +3438,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5590548515319824</v>
+        <v>0.6116212368011474</v>
       </c>
       <c r="C44" t="n">
-        <v>0.004026427795824664</v>
+        <v>0.01078198880024088</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002998542785644531</v>
+        <v>0.002998971939086914</v>
       </c>
       <c r="E44" t="n">
-        <v>1.480500669122698e-06</v>
+        <v>3.873843385999661e-07</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3478,28 +3478,28 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>-0.2615206241793683</v>
+        <v>-0.2995383885641643</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.3091994053687175</v>
+        <v>-0.2755998338226422</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.2974943943670613</v>
+        <v>-0.2705012815326618</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.2873948566623046</v>
+        <v>-0.302300393246863</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.29920872784621</v>
+        <v>-0.290844982856345</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.2909636016847323</v>
+        <v>-0.2877569760045352</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01626531745706529</v>
+        <v>0.0126917575696895</v>
       </c>
       <c r="U44" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -3507,16 +3507,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.129501581192017</v>
+        <v>1.23383617401123</v>
       </c>
       <c r="C45" t="n">
-        <v>0.008675824491519324</v>
+        <v>0.01614603214151744</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0035980224609375</v>
+        <v>0.003198719024658203</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004898236313161175</v>
+        <v>0.0004004956569142302</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3547,28 +3547,28 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>-0.2623818286934964</v>
+        <v>-0.3019994607455233</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.3170715230778298</v>
+        <v>-0.2794753086201575</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.2986431220663762</v>
+        <v>-0.2772452332200174</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.2929007804271801</v>
+        <v>-0.3024141834680777</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.3010796256793112</v>
+        <v>-0.2942078160354695</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.2944153759888387</v>
+        <v>-0.2910684004178491</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0179110536473398</v>
+        <v>0.01080324518040002</v>
       </c>
       <c r="U45" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -3576,16 +3576,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5102843761444091</v>
+        <v>0.550859022140503</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00422156027223552</v>
+        <v>0.011135311154136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002799177169799805</v>
+        <v>0.003198575973510742</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0004000194167356693</v>
+        <v>0.0003986598023614744</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3616,28 +3616,28 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>-0.2643879998664965</v>
+        <v>-0.2955763414235998</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.3007750158896728</v>
+        <v>-0.2651224597457141</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.2829455753950608</v>
+        <v>-0.2753953724568435</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.2794357817730375</v>
+        <v>-0.2902807474383021</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.2847241365970846</v>
+        <v>-0.2857251026196265</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.2824537019042704</v>
+        <v>-0.2824200047368172</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01163223788798275</v>
+        <v>0.01090279472647234</v>
       </c>
       <c r="U46" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -3645,16 +3645,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.039956760406494</v>
+        <v>1.251027202606201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005604587310632306</v>
+        <v>0.04525050165984332</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003597927093505859</v>
+        <v>0.00379781723022461</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0004893566141983332</v>
+        <v>0.0007480224672292635</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3685,28 +3685,28 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>-0.2684485450098594</v>
+        <v>-0.2956886873033178</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.3023233962369945</v>
+        <v>-0.2693345118543097</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.2873502768870775</v>
+        <v>-0.2833211659125753</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.2882685997542508</v>
+        <v>-0.2945025764031109</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.2895539281446292</v>
+        <v>-0.2912253677297196</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.2871889492065623</v>
+        <v>-0.2868144618406067</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0108354883016492</v>
+        <v>0.009747480103247956</v>
       </c>
       <c r="U47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -3714,16 +3714,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.463712739944458</v>
+        <v>0.4988906383514404</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005963184320549939</v>
+        <v>0.024434615028728</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002999162673950195</v>
+        <v>0.002399110794067383</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0006324102062677127</v>
+        <v>0.0004893759241723679</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3754,25 +3754,25 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>-0.2761314313163622</v>
+        <v>-0.292478864173035</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.3011473294265319</v>
+        <v>-0.2667156051266275</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.2754723530804911</v>
+        <v>-0.2671535743108962</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.2678512744005496</v>
+        <v>-0.2951561975528516</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.2805193982294178</v>
+        <v>-0.2855019531742112</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.2802243572906705</v>
+        <v>-0.2814012388675243</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01122750710891874</v>
+        <v>0.01222613849389399</v>
       </c>
       <c r="U48" t="n">
         <v>26</v>
@@ -3783,16 +3783,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9672017574310303</v>
+        <v>1.046352529525757</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01016073478319604</v>
+        <v>0.0279468776591029</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003198099136352539</v>
+        <v>0.002998733520507813</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0003998520086989724</v>
+        <v>4.422005889652111e-07</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3823,28 +3823,28 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>-0.2795406363055368</v>
+        <v>-0.2902830873354167</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.3019314853193431</v>
+        <v>-0.2777636676917296</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.2806365322563966</v>
+        <v>-0.271124072292741</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.2747330826587979</v>
+        <v>-0.2976960511588849</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.2814191907656569</v>
+        <v>-0.2893636214937944</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.2836521854611462</v>
+        <v>-0.2852460999945133</v>
       </c>
       <c r="T49" t="n">
-        <v>0.009430466204012668</v>
+        <v>0.009515723496824249</v>
       </c>
       <c r="U49" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -3852,16 +3852,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4175417423248291</v>
+        <v>0.4601148128509521</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00132593587364083</v>
+        <v>0.01680178000382638</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00279836654663086</v>
+        <v>0.003198480606079101</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0003998521792923084</v>
+        <v>0.0009795497652279293</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3892,28 +3892,28 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>-0.2628268842375154</v>
+        <v>-0.2967680396133721</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.2990046524721103</v>
+        <v>-0.2586554228793</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.2747000198880633</v>
+        <v>-0.2667967519831164</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.2704989513487781</v>
+        <v>-0.2959888383977565</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.2778833345169028</v>
+        <v>-0.2766955576676857</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.2769827684926739</v>
+        <v>-0.2789809221082461</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01211126977786</v>
+        <v>0.01531308967401629</v>
       </c>
       <c r="U50" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -3921,16 +3921,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8890502452850342</v>
+        <v>0.9540103912353516</v>
       </c>
       <c r="C51" t="n">
-        <v>0.008611174313325516</v>
+        <v>0.0158599623669993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002798032760620117</v>
+        <v>0.003198146820068359</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0003998044956218433</v>
+        <v>0.000400185624083698</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3961,28 +3961,28 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>-0.2666895659229805</v>
+        <v>-0.2950230410728945</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.3045955222651611</v>
+        <v>-0.2631074193222402</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.2841414171737389</v>
+        <v>-0.2730780374992662</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.2712998137294138</v>
+        <v>-0.2965720405734922</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.2852750588306904</v>
+        <v>-0.2828713973251817</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.282400275584397</v>
+        <v>-0.282130387158615</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01322098014087109</v>
+        <v>0.01279960400977028</v>
       </c>
       <c r="U51" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3990,16 +3990,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4117455959320068</v>
+        <v>0.4551175594329834</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001788831668342251</v>
+        <v>0.01958788153337417</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00259852409362793</v>
+        <v>0.002798748016357422</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0004893959117019618</v>
+        <v>0.0004000441643933863</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -4030,28 +4030,28 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>-0.2613594959914989</v>
+        <v>-0.2942206914772804</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.2974722646015692</v>
+        <v>-0.2507503854637547</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.2716424081331002</v>
+        <v>-0.268105589713078</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.27328051199443</v>
+        <v>-0.2907830593268417</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.2802876886585315</v>
+        <v>-0.2799757786708382</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.276808473875826</v>
+        <v>-0.2767671009303586</v>
       </c>
       <c r="T52" t="n">
-        <v>0.01197416260643458</v>
+        <v>0.01589504190514198</v>
       </c>
       <c r="U52" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -4059,16 +4059,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8642660617828369</v>
+        <v>1.005777835845947</v>
       </c>
       <c r="C53" t="n">
-        <v>0.004487459436045811</v>
+        <v>0.0305661245144732</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003596782684326172</v>
+        <v>0.003997278213500976</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0004884269802359304</v>
+        <v>0.001094016413371083</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4099,28 +4099,28 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>-0.2709142826078939</v>
+        <v>-0.2916182018249663</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.3073110205066705</v>
+        <v>-0.2615510321569782</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.2787388004175888</v>
+        <v>-0.2760112749152159</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.2786590180821767</v>
+        <v>-0.2925891883446309</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.2871752706675811</v>
+        <v>-0.2845190114704091</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.2845596784563822</v>
+        <v>-0.2812577417424401</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01248488790146446</v>
+        <v>0.01150874895297822</v>
       </c>
       <c r="U53" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -4128,16 +4128,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3709702968597412</v>
+        <v>0.3993525981903076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.004067352467079874</v>
+        <v>0.01795090600958814</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002599096298217773</v>
+        <v>0.002598667144775391</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0004901546575989421</v>
+        <v>0.0004897071091561862</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4168,28 +4168,28 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>-0.2690205939379046</v>
+        <v>-0.2916478890944646</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.293437782961932</v>
+        <v>-0.2642306407368364</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.2735322119522788</v>
+        <v>-0.2602528408293693</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.2680124902319018</v>
+        <v>-0.2909899278525832</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.2776587875713716</v>
+        <v>-0.2816088509063997</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.2763323733310777</v>
+        <v>-0.2777460298839306</v>
       </c>
       <c r="T54" t="n">
-        <v>0.009218219891083925</v>
+        <v>0.01320803782748393</v>
       </c>
       <c r="U54" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -4197,16 +4197,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8037015438079834</v>
+        <v>0.8476765632629395</v>
       </c>
       <c r="C55" t="n">
-        <v>0.009635547449216294</v>
+        <v>0.01548689209088025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002998781204223633</v>
+        <v>0.002997732162475586</v>
       </c>
       <c r="E55" t="n">
-        <v>5.309833872633e-07</v>
+        <v>1.729808535310464e-06</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -4237,28 +4237,28 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>-0.2789692100147192</v>
+        <v>-0.2900717954275563</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.3034542264315391</v>
+        <v>-0.2692378161349383</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.2787923247307074</v>
+        <v>-0.269179727142365</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.2705262526012221</v>
+        <v>-0.2913811344609546</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.2833692272238079</v>
+        <v>-0.2829131172759204</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.2830222482003992</v>
+        <v>-0.280556718088347</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01102774143684139</v>
+        <v>0.009703718546266095</v>
       </c>
       <c r="U55" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -4266,16 +4266,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.044954013824463</v>
+        <v>1.148288488388062</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02310810192180776</v>
+        <v>0.01051921177484285</v>
       </c>
       <c r="D56" t="n">
-        <v>0.003797578811645508</v>
+        <v>0.003997516632080078</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0004003291295909402</v>
+        <v>7.448434520632414e-07</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>-0.3400167969605794</v>
+        <v>-0.3946087186117032</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.3631101714283717</v>
+        <v>-0.3625824001592199</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.3829390401125671</v>
+        <v>-0.36258603267108</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.3457113289745907</v>
+        <v>-0.3602495450588848</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.3710498111185485</v>
+        <v>-0.3830472841919444</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.3605654297189315</v>
+        <v>-0.3726147961385664</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01587367016733839</v>
+        <v>0.01376004311602975</v>
       </c>
       <c r="U56" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -4335,16 +4335,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.093105697631836</v>
+        <v>2.306773042678833</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0563306429060394</v>
+        <v>0.06725229382432153</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005597162246704102</v>
+        <v>0.005797100067138672</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0004895324945360644</v>
+        <v>0.0004004005166593149</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4375,28 +4375,28 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>-0.3408849175596694</v>
+        <v>-0.3953009349088036</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.3636714939984935</v>
+        <v>-0.3633382574103189</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.3833301273036578</v>
+        <v>-0.3638019684437034</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.3467175478958386</v>
+        <v>-0.361099936848683</v>
       </c>
       <c r="R57" t="n">
-        <v>-0.3716042097959322</v>
+        <v>-0.383994018332293</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.3612416593107183</v>
+        <v>-0.3735070231887604</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01566227132030582</v>
+        <v>0.01368560800047265</v>
       </c>
       <c r="U57" t="n">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -4404,16 +4404,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8370827674865723</v>
+        <v>0.888650369644165</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00858797168520513</v>
+        <v>0.0314787309583935</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00299839973449707</v>
+        <v>0.003198528289794922</v>
       </c>
       <c r="E58" t="n">
-        <v>5.917393515582492e-07</v>
+        <v>0.0004003526768040993</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4444,28 +4444,28 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>-0.2761288785701896</v>
+        <v>-0.300972959957607</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.3055418778838053</v>
+        <v>-0.2793993952265797</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.2970539367690573</v>
+        <v>-0.2890590595592514</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.280756127867949</v>
+        <v>-0.2888331526823946</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.296208455233098</v>
+        <v>-0.3062551701005182</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.2911378552648198</v>
+        <v>-0.2929039475052702</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01096573314625355</v>
+        <v>0.009561292515126846</v>
       </c>
       <c r="U58" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -4473,16 +4473,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.827070808410645</v>
+        <v>1.998764324188232</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05337677584866617</v>
+        <v>0.0931543302501545</v>
       </c>
       <c r="D59" t="n">
-        <v>0.003996992111206054</v>
+        <v>0.00419764518737793</v>
       </c>
       <c r="E59" t="n">
-        <v>7.921813834112238e-07</v>
+        <v>0.0004002820707713735</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4513,28 +4513,28 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>-0.28453621451547</v>
+        <v>-0.3064512869969741</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.3123786693827965</v>
+        <v>-0.2862265604689903</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.3058577156969782</v>
+        <v>-0.2965474464997401</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.2869172771666673</v>
+        <v>-0.2921650166191641</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.3041430133836927</v>
+        <v>-0.3115701696551988</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.2987665780291209</v>
+        <v>-0.2985920960480135</v>
       </c>
       <c r="T59" t="n">
-        <v>0.01102169223147511</v>
+        <v>0.00925841983107082</v>
       </c>
       <c r="U59" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -4542,16 +4542,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7019664287567139</v>
+        <v>0.7425405025482178</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0166951156966026</v>
+        <v>0.04440759980740404</v>
       </c>
       <c r="D60" t="n">
-        <v>0.002798223495483399</v>
+        <v>0.003198671340942383</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0003996641469510104</v>
+        <v>0.0004000429423929365</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>-0.2820447184719764</v>
+        <v>-0.2938605259267149</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.3070451141803757</v>
+        <v>-0.2716483050764653</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.2850431867788185</v>
+        <v>-0.2773781319643893</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.2738315820264544</v>
+        <v>-0.2976745761887043</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.295773557191465</v>
+        <v>-0.2857846992478883</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.288747631729818</v>
+        <v>-0.2852692476808324</v>
       </c>
       <c r="T60" t="n">
-        <v>0.01153518088207926</v>
+        <v>0.00975466772664382</v>
       </c>
       <c r="U60" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -4611,16 +4611,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.583420133590698</v>
+        <v>1.673967933654785</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04212513492191745</v>
+        <v>0.05096669303872995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.003198099136352539</v>
+        <v>0.003395366668701172</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0004002095831174533</v>
+        <v>0.0004863593248913174</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4651,28 +4651,28 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>-0.2940794055414088</v>
+        <v>-0.2979115683104629</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.3160404527816257</v>
+        <v>-0.2759025646959876</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.2920730109054444</v>
+        <v>-0.2908612535000242</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.2782456911319054</v>
+        <v>-0.3014730083164871</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.3012767999748002</v>
+        <v>-0.2934642053387347</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.2963430720670369</v>
+        <v>-0.2919225200323393</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0123547665559293</v>
+        <v>0.008800256529881529</v>
       </c>
       <c r="U61" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
@@ -4680,16 +4680,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8478764533996582</v>
+        <v>0.9280252933502198</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01603512879577242</v>
+        <v>0.04041620125481335</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003397607803344727</v>
+        <v>0.003199005126953125</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000489376528177553</v>
+        <v>0.0003995181090394699</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4720,28 +4720,28 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>-0.2753564004486249</v>
+        <v>-0.3071267627543801</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.3161142791680735</v>
+        <v>-0.2821578014611155</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.2851375862535034</v>
+        <v>-0.2861022550195347</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.2939220152991142</v>
+        <v>-0.2981383029918395</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.2974785589044419</v>
+        <v>-0.3000211621355435</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.2936017680147516</v>
+        <v>-0.2947092568724826</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01361235493854376</v>
+        <v>0.009228094721875735</v>
       </c>
       <c r="U62" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
@@ -4749,16 +4749,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.917014932632446</v>
+        <v>2.176654386520386</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03996315183262052</v>
+        <v>0.05779493796744658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.003997611999511719</v>
+        <v>0.004597330093383789</v>
       </c>
       <c r="E63" t="n">
-        <v>2.336015455992868e-07</v>
+        <v>0.0004899015448904275</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4789,28 +4789,28 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>-0.278981921614696</v>
+        <v>-0.3093289513538044</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.3213203195859603</v>
+        <v>-0.2848795791860954</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.2863355431823721</v>
+        <v>-0.2884896664460803</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.2976723370663285</v>
+        <v>-0.2982888844494735</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.2997574990352719</v>
+        <v>-0.29961721617075</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.2968135240969257</v>
+        <v>-0.2961208595212407</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01440653812978954</v>
+        <v>0.008671562985888372</v>
       </c>
       <c r="U63" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
@@ -4818,16 +4818,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.763527250289917</v>
+        <v>0.7779181957244873</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02453678395337475</v>
+        <v>0.03174490216856091</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003398323059082031</v>
+        <v>0.003398513793945312</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0004898625339533384</v>
+        <v>0.0004900962050452181</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4858,28 +4858,28 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>-0.2691311318694983</v>
+        <v>-0.2961413302010973</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.3118047662991198</v>
+        <v>-0.2709475145267841</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.2792901335430165</v>
+        <v>-0.2764348762652478</v>
       </c>
       <c r="Q64" t="n">
-        <v>-0.281131662056361</v>
+        <v>-0.295094451579638</v>
       </c>
       <c r="R64" t="n">
-        <v>-0.2916751701828055</v>
+        <v>-0.2872663617508199</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.2866065727901602</v>
+        <v>-0.2851769068647175</v>
       </c>
       <c r="T64" t="n">
-        <v>0.01448817173983979</v>
+        <v>0.01001839108142378</v>
       </c>
       <c r="U64" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
@@ -4887,16 +4887,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.671567010879517</v>
+        <v>2.048932647705078</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01763609882175074</v>
+        <v>0.07597493697951242</v>
       </c>
       <c r="D65" t="n">
-        <v>0.003797435760498047</v>
+        <v>0.006396818161010742</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000747856759845266</v>
+        <v>0.0013559745367899</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4927,28 +4927,28 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>-0.2721201495097453</v>
+        <v>-0.2970785421536914</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.3241774633894201</v>
+        <v>-0.281464685576589</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.2873716646217665</v>
+        <v>-0.2807309312860751</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.2884746251178619</v>
+        <v>-0.3020676689685912</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.2956725246020352</v>
+        <v>-0.2922494176044421</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.2935632854481658</v>
+        <v>-0.2907182491178778</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01712142220795741</v>
+        <v>0.008449640123337199</v>
       </c>
       <c r="U65" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -4956,16 +4956,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6152198314666748</v>
+        <v>0.7691242218017578</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01320717860691496</v>
+        <v>0.04837876908655123</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002997779846191406</v>
+        <v>0.004196882247924805</v>
       </c>
       <c r="E66" t="n">
-        <v>1.1444091796875e-06</v>
+        <v>0.001165034781209284</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4996,28 +4996,28 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>-0.2746490705719213</v>
+        <v>-0.2972814179608265</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.2966193958820518</v>
+        <v>-0.2715982411363009</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.285068138336049</v>
+        <v>-0.2690756698660897</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.2655054164559911</v>
+        <v>-0.3015337315253293</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.2893741739506983</v>
+        <v>-0.283645111249317</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.2822432390393423</v>
+        <v>-0.2846268343475727</v>
       </c>
       <c r="T66" t="n">
-        <v>0.0109848101836675</v>
+        <v>0.0131036513738778</v>
       </c>
       <c r="U66" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -5025,16 +5025,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.433914613723755</v>
+        <v>1.805482721328735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02349165025984644</v>
+        <v>0.08937761597007214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.003796672821044922</v>
+        <v>0.004596328735351563</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0003991731019159534</v>
+        <v>0.001020291517136982</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -5065,28 +5065,28 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>-0.2815412414957641</v>
+        <v>-0.3009682216779402</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.3074407008056534</v>
+        <v>-0.2801926057185926</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.2925231901806818</v>
+        <v>-0.277384632218827</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.276101276767321</v>
+        <v>-0.3089499324251202</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.3011529724919506</v>
+        <v>-0.2885144308020932</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.2917518763482742</v>
+        <v>-0.2912019645685147</v>
       </c>
       <c r="T67" t="n">
-        <v>0.01169882966727696</v>
+        <v>0.01208070887208399</v>
       </c>
       <c r="U67" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
@@ -5094,16 +5094,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4872982025146484</v>
+        <v>0.5448620319366455</v>
       </c>
       <c r="C68" t="n">
-        <v>0.008182326760409496</v>
+        <v>0.0270642327283746</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002798748016357422</v>
+        <v>0.003599405288696289</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0007481880649769047</v>
+        <v>0.0008005500882675322</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5134,28 +5134,28 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>-0.2600862424760251</v>
+        <v>-0.2950653510498936</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.3032367718322337</v>
+        <v>-0.2626923994808409</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.2751950576750905</v>
+        <v>-0.2703776792234638</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.274791084142512</v>
+        <v>-0.2954827336452157</v>
       </c>
       <c r="R68" t="n">
-        <v>-0.2844496394586289</v>
+        <v>-0.2766087949704525</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.279551759116898</v>
+        <v>-0.2800453916739733</v>
       </c>
       <c r="T68" t="n">
-        <v>0.01418111611212898</v>
+        <v>0.01319327029795628</v>
       </c>
       <c r="U68" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -5163,16 +5163,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.083928966522217</v>
+        <v>1.155485153198242</v>
       </c>
       <c r="C69" t="n">
-        <v>0.009598506759979973</v>
+        <v>0.03649858136402977</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003798198699951172</v>
+        <v>0.003797674179077149</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0003999252149865394</v>
+        <v>0.0007475381710548992</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -5203,28 +5203,28 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>-0.2676327672467354</v>
+        <v>-0.2950182477965159</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.3148432581626175</v>
+        <v>-0.2679048409200482</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.2859593343592967</v>
+        <v>-0.2764457346752247</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.2817263614979991</v>
+        <v>-0.2955072022447988</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.2986572618713816</v>
+        <v>-0.2863214204560943</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.2897637966276061</v>
+        <v>-0.2842394892185364</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0159808001864672</v>
+        <v>0.01072418552542972</v>
       </c>
       <c r="U69" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -5232,16 +5232,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4733072757720947</v>
+        <v>0.5190790176391602</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009019405541908497</v>
+        <v>0.03279750543996163</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002998113632202148</v>
+        <v>0.002798700332641602</v>
       </c>
       <c r="E70" t="n">
-        <v>7.835234034135334e-07</v>
+        <v>0.0003998996355321087</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5272,28 +5272,28 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>-0.258019096517237</v>
+        <v>-0.2910169366865609</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.3039413014140581</v>
+        <v>-0.2636468947902312</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.2685918210261934</v>
+        <v>-0.269253166565104</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.2726394901513038</v>
+        <v>-0.2905396101789498</v>
       </c>
       <c r="R70" t="n">
-        <v>-0.2784560688301213</v>
+        <v>-0.2804446323068251</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.2763295555877827</v>
+        <v>-0.2789802481055342</v>
       </c>
       <c r="T70" t="n">
-        <v>0.01533422705316391</v>
+        <v>0.01104873733795875</v>
       </c>
       <c r="U70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -5301,16 +5301,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.072735977172852</v>
+        <v>1.092323875427246</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04022255059703649</v>
+        <v>0.02324076191789212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003598403930664062</v>
+        <v>0.003398275375366211</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0004899403856509721</v>
+        <v>0.0004896097346240452</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -5341,28 +5341,28 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>-0.2659115651919954</v>
+        <v>-0.2913842176822116</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.3136153617610299</v>
+        <v>-0.2724519957156564</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.2795302731694079</v>
+        <v>-0.2749163731098218</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.2806147615560718</v>
+        <v>-0.2909736221106142</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.291099123420967</v>
+        <v>-0.2899438293908211</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.2861542170198944</v>
+        <v>-0.283934007601825</v>
       </c>
       <c r="T71" t="n">
-        <v>0.01589272614628828</v>
+        <v>0.008418243158702696</v>
       </c>
       <c r="U71" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -5370,16 +5370,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4183406352996826</v>
+        <v>0.4397281646728516</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01121079754984296</v>
+        <v>0.02514864615511293</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002798271179199219</v>
+        <v>0.00279836654663086</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0003999251581324868</v>
+        <v>0.0003998521792923085</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>-0.2697822732932346</v>
+        <v>-0.2894392434732769</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.2964470162434282</v>
+        <v>-0.2669479885396976</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.2729112244333352</v>
+        <v>-0.2620332828866007</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.2663149218726183</v>
+        <v>-0.2915426134131618</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.2772691482438072</v>
+        <v>-0.2826764295097057</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.2765449168172847</v>
+        <v>-0.2785279115644885</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0105849698825241</v>
+        <v>0.01193161532950904</v>
       </c>
       <c r="U72" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -5439,16 +5439,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9741981506347657</v>
+        <v>0.982603931427002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02376324338694905</v>
+        <v>0.03754078436863763</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003397846221923828</v>
+        <v>0.003597831726074219</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0004897653528101774</v>
+        <v>0.0004883068979500999</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -5479,28 +5479,28 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>-0.2781635509786752</v>
+        <v>-0.2876633750025233</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.306763595122698</v>
+        <v>-0.2734349597927319</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.2775335142771582</v>
+        <v>-0.269206809692554</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.2713903649542139</v>
+        <v>-0.2944066431042885</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.2883589637621741</v>
+        <v>-0.2843681327248925</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.2844419978189839</v>
+        <v>-0.2818159840633981</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01241843378530717</v>
+        <v>0.00925702959711305</v>
       </c>
       <c r="U73" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -5508,16 +5508,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6891740798950196</v>
+        <v>0.7733221530914307</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02224545297472402</v>
+        <v>0.02793499170714067</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00319833755493164</v>
+        <v>0.003397703170776367</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0004000904839836858</v>
+        <v>0.0007990622491956145</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>10</v>
@@ -5544,32 +5544,32 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>-0.3039399244428805</v>
+        <v>-0.3315063791367133</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.323819966704518</v>
+        <v>-0.3006693640162501</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.3243690976319015</v>
+        <v>-0.2938570788248457</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.3011696644799622</v>
+        <v>-0.3265478548062448</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.3257553387539717</v>
+        <v>-0.3181191821405817</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.3158107984026468</v>
+        <v>-0.3141399717849271</v>
       </c>
       <c r="T74" t="n">
-        <v>0.01087718342674178</v>
+        <v>0.01458927551951151</v>
       </c>
       <c r="U74" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
@@ -5577,16 +5577,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.361158275604248</v>
+        <v>1.498672151565552</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04282580564769356</v>
+        <v>0.02591895561071187</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00339808464050293</v>
+        <v>0.004197883605957031</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0004897655617227343</v>
+        <v>0.000400162027266177</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>10</v>
@@ -5613,32 +5613,32 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>-0.3039415377686531</v>
+        <v>-0.3315991517510508</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.3238216594865165</v>
+        <v>-0.3007448232835548</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.3243662801690834</v>
+        <v>-0.2938126336538857</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.3011715810407764</v>
+        <v>-0.3266097568358498</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.3257661952208455</v>
+        <v>-0.3180420202048507</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.315813450737175</v>
+        <v>-0.3141616771458384</v>
       </c>
       <c r="T75" t="n">
-        <v>0.01087810725411417</v>
+        <v>0.0146162430838515</v>
       </c>
       <c r="U75" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
@@ -5646,16 +5646,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5744025230407714</v>
+        <v>0.6240139007568359</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02907037191993977</v>
+        <v>0.02568702119977288</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.002997159957885742</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1.414527604502804e-06</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H76" t="n">
         <v>10</v>
@@ -5682,32 +5682,32 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>-0.2974891668120989</v>
+        <v>-0.322767215011652</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.3385543132621804</v>
+        <v>-0.2883414198758241</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.3179861759595183</v>
+        <v>-0.3037486232185546</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.2997306788000773</v>
+        <v>-0.3079448669908613</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.3140299993890748</v>
+        <v>-0.3025730095837891</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.31355806684459</v>
+        <v>-0.3050750269361363</v>
       </c>
       <c r="T76" t="n">
-        <v>0.01479222372746493</v>
+        <v>0.01103886356235564</v>
       </c>
       <c r="U76" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
@@ -5715,16 +5715,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.117127180099487</v>
+        <v>1.250426530838013</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02754042972248612</v>
+        <v>0.00732754373577211</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0055450439453125</v>
+        <v>0.003398275375366211</v>
       </c>
       <c r="E77" t="n">
-        <v>0.005714384311338969</v>
+        <v>0.0004908756949271782</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>10</v>
@@ -5751,32 +5751,32 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>-0.298305343448428</v>
+        <v>-0.3326488156619533</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.3436512570744943</v>
+        <v>-0.2892019426591269</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.3247364506587493</v>
+        <v>-0.3108620154936628</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.30770169099545</v>
+        <v>-0.3145331288860881</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.3181097260649836</v>
+        <v>-0.3097273528879746</v>
       </c>
       <c r="S77" t="n">
-        <v>-0.3185008936484211</v>
+        <v>-0.3113946511177612</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01546647335103466</v>
+        <v>0.01383596361659656</v>
       </c>
       <c r="U77" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78">
@@ -5784,16 +5784,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4857557773590088</v>
+        <v>0.5726433753967285</v>
       </c>
       <c r="C78" t="n">
-        <v>0.008289732479531782</v>
+        <v>0.02366775882390567</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0004078388214111328</v>
+        <v>0.002998733520507813</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0008156776428222656</v>
+        <v>1.37871096561441e-06</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>10</v>
@@ -5820,32 +5820,32 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>-0.3221773213047273</v>
+        <v>-0.3094595027377876</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.3259304398758094</v>
+        <v>-0.275643794094144</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.322718129948488</v>
+        <v>-0.3006675492751854</v>
       </c>
       <c r="Q78" t="n">
-        <v>-0.3086483890239315</v>
+        <v>-0.3022860461043607</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.3275934747657946</v>
+        <v>-0.2881551551821899</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.3214135509837502</v>
+        <v>-0.2952424094787335</v>
       </c>
       <c r="T78" t="n">
-        <v>0.006690715573896866</v>
+        <v>0.01196248801812155</v>
       </c>
       <c r="U78" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79">
@@ -5853,16 +5853,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9762860298156738</v>
+        <v>1.143693208694458</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01339770539805912</v>
+        <v>0.04715794264270443</v>
       </c>
       <c r="D79" t="n">
-        <v>0.006249809265136718</v>
+        <v>0.00339808464050293</v>
       </c>
       <c r="E79" t="n">
-        <v>0.007654422058526959</v>
+        <v>0.0004896678041232201</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>10</v>
@@ -5889,32 +5889,32 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>-0.3292027500829679</v>
+        <v>-0.3255786087479517</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.3378798691990209</v>
+        <v>-0.2828765586133589</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.3251274408900087</v>
+        <v>-0.305122066195516</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.318547007079312</v>
+        <v>-0.3076132166203522</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.3339689443667948</v>
+        <v>-0.2985349710016877</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.3289452023236208</v>
+        <v>-0.3039450842357733</v>
       </c>
       <c r="T79" t="n">
-        <v>0.006750264496178091</v>
+        <v>0.01382752300053297</v>
       </c>
       <c r="U79" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
@@ -5922,16 +5922,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5595359802246094</v>
+        <v>0.6623881340026856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.008770876953481759</v>
+        <v>0.00858488810305898</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001608610153198242</v>
+        <v>0.003198719024658203</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003217220306396484</v>
+        <v>0.0003997804156241274</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>10</v>
@@ -5958,32 +5958,32 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>-0.300284550507514</v>
+        <v>-0.3164114703200436</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.3391566298023316</v>
+        <v>-0.2834834374656595</v>
       </c>
       <c r="P80" t="n">
-        <v>-0.3172204825178654</v>
+        <v>-0.293227293546969</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.3293103068712827</v>
+        <v>-0.3157074682621773</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.3157086826075932</v>
+        <v>-0.2980957400573804</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.3203361304613174</v>
+        <v>-0.301385081930446</v>
       </c>
       <c r="T80" t="n">
-        <v>0.01317523003269802</v>
+        <v>0.01287448060374874</v>
       </c>
       <c r="U80" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -5991,16 +5991,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.127191781997681</v>
+        <v>1.299596309661865</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02253826973370223</v>
+        <v>0.0192093721376471</v>
       </c>
       <c r="D81" t="n">
-        <v>0.003199625015258789</v>
+        <v>0.00319833755493164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001599812901138499</v>
+        <v>0.000400090540814245</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>10</v>
@@ -6027,32 +6027,32 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>-0.301345863853149</v>
+        <v>-0.3195438568451472</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.3399067112801891</v>
+        <v>-0.2878313212942065</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.3188448682600656</v>
+        <v>-0.2964722997545545</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.3309969787181117</v>
+        <v>-0.3162667799910354</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.3145115161917667</v>
+        <v>-0.3023777802447959</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.3211211876606564</v>
+        <v>-0.3044984076259479</v>
       </c>
       <c r="T81" t="n">
-        <v>0.01334436184538221</v>
+        <v>0.01192952107314887</v>
       </c>
       <c r="U81" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -6060,16 +6060,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5094481945037842</v>
+        <v>0.5686481475830079</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009326508082484357</v>
+        <v>0.007397566520141332</v>
       </c>
       <c r="D82" t="n">
-        <v>0.002399396896362305</v>
+        <v>0.002997875213623047</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001959099402789527</v>
+        <v>0.0006320328766495994</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>10</v>
@@ -6096,32 +6096,32 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>-0.299304413502141</v>
+        <v>-0.2975106335452255</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.3483287489428545</v>
+        <v>-0.2919743230779168</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.3204997158303364</v>
+        <v>-0.280269762622179</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.3034286961218025</v>
+        <v>-0.2834194093991553</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.3325085395992692</v>
+        <v>-0.3033273361394873</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.3208140227992807</v>
+        <v>-0.2913002929567928</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01821446426667574</v>
+        <v>0.008572669825192059</v>
       </c>
       <c r="U82" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83">
@@ -6129,16 +6129,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.027694082260132</v>
+        <v>1.16688551902771</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01338251263860739</v>
+        <v>0.01927419064740099</v>
       </c>
       <c r="D83" t="n">
-        <v>0.003199243545532227</v>
+        <v>0.003197526931762695</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001599621846502351</v>
+        <v>0.0003976353210622021</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>10</v>
@@ -6165,32 +6165,32 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>-0.3015446324929714</v>
+        <v>-0.3003126901300458</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.3627113348735416</v>
+        <v>-0.3000238382252691</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.3225733528842866</v>
+        <v>-0.2851853811864259</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.3096822062031027</v>
+        <v>-0.2903274763650107</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.340014115108323</v>
+        <v>-0.3103219262011668</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.3273051283124451</v>
+        <v>-0.2972342624215837</v>
       </c>
       <c r="T83" t="n">
-        <v>0.02196214031311352</v>
+        <v>0.008734124182519443</v>
       </c>
       <c r="U83" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
@@ -6198,16 +6198,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4646617889404297</v>
+        <v>0.5166807174682617</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003919600388719366</v>
+        <v>0.012594218509911</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002399444580078125</v>
+        <v>0.002599048614501953</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001959138309299452</v>
+        <v>0.0004903107242372289</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>10</v>
@@ -6234,32 +6234,32 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>-0.2958676731486998</v>
+        <v>-0.296961609510725</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.3215335596995484</v>
+        <v>-0.2907335528915026</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.321411199517966</v>
+        <v>-0.2936377359948116</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.2960843935232279</v>
+        <v>-0.2917730381475042</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.3065122808177032</v>
+        <v>-0.2957998291969203</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.3082818213414291</v>
+        <v>-0.2937811531482927</v>
       </c>
       <c r="T84" t="n">
-        <v>0.01143685914236032</v>
+        <v>0.002346542875130571</v>
       </c>
       <c r="U84" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85">
@@ -6267,16 +6267,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9373209476470947</v>
+        <v>1.046152448654175</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01202446179697417</v>
+        <v>0.02658732389694816</v>
       </c>
       <c r="D85" t="n">
-        <v>0.003199672698974609</v>
+        <v>0.002998828887939453</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001599836814940336</v>
+        <v>5.001110306597479e-07</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>10</v>
@@ -6303,32 +6303,32 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>-0.3058295199432568</v>
+        <v>-0.305168793577045</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.3394022384473465</v>
+        <v>-0.2942457720327248</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.329068506920033</v>
+        <v>-0.2947452066441131</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.3095781665941162</v>
+        <v>-0.3085952967885071</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.3088670548728583</v>
+        <v>-0.306473627785714</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.3185490973555222</v>
+        <v>-0.3018457393656208</v>
       </c>
       <c r="T85" t="n">
-        <v>0.013277941601695</v>
+        <v>0.006102354206632461</v>
       </c>
       <c r="U85" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
@@ -6336,16 +6336,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4254732608795166</v>
+        <v>0.4747063159942627</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01279711131569699</v>
+        <v>0.01399081782654618</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003998994827270508</v>
+        <v>0.00259861946105957</v>
       </c>
       <c r="E86" t="n">
-        <v>6.743495761743046e-07</v>
+        <v>0.000489473438123572</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H86" t="n">
         <v>10</v>
@@ -6372,32 +6372,32 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>-0.295878738406731</v>
+        <v>-0.3063587981833966</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.3385183114214181</v>
+        <v>-0.287888582657309</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.3168154514241519</v>
+        <v>-0.2837019891309309</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.3164149235272052</v>
+        <v>-0.2985033835341102</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.3135574854655037</v>
+        <v>-0.3004688584681897</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.316236982049002</v>
+        <v>-0.2953843223947873</v>
       </c>
       <c r="T86" t="n">
-        <v>0.01355331483238541</v>
+        <v>0.008350846579924142</v>
       </c>
       <c r="U86" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
@@ -6405,16 +6405,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8674411773681641</v>
+        <v>0.9560082435607911</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01590560223492772</v>
+        <v>0.01266675181864546</v>
       </c>
       <c r="D87" t="n">
-        <v>0.003199243545532227</v>
+        <v>0.00319833755493164</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001599621796752601</v>
+        <v>0.0003990174194594779</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
         <v>10</v>
@@ -6441,32 +6441,32 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>-0.2988816962188379</v>
+        <v>-0.3160748038984172</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.3410738871617653</v>
+        <v>-0.2934091084523385</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.3255785081705848</v>
+        <v>-0.2880498699663667</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.3276339584863552</v>
+        <v>-0.3015244035551599</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.317685345766621</v>
+        <v>-0.3004575344732768</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.3221706791608329</v>
+        <v>-0.2999031440691119</v>
       </c>
       <c r="T87" t="n">
-        <v>0.01386569099904268</v>
+        <v>0.009456542901323183</v>
       </c>
       <c r="U87" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -6474,16 +6474,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4158141136169434</v>
+        <v>0.4637133598327637</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0102399614762684</v>
+        <v>0.01017206314029591</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.0027984619140625</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.0003996614161647263</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>10</v>
@@ -6510,32 +6510,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>-0.3009641802060772</v>
+        <v>-0.3032882682574997</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.3417271569710392</v>
+        <v>-0.2861439575356683</v>
       </c>
       <c r="P88" t="n">
-        <v>-0.3071746978385357</v>
+        <v>-0.2862788545578795</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.2883549047987375</v>
+        <v>-0.3049100871140902</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.3083770964991236</v>
+        <v>-0.2893490059030789</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.3093196072627027</v>
+        <v>-0.2939940346736433</v>
       </c>
       <c r="T88" t="n">
-        <v>0.01769220252979725</v>
+        <v>0.008345861086359842</v>
       </c>
       <c r="U88" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89">
@@ -6543,16 +6543,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8480967521667481</v>
+        <v>0.939818286895752</v>
       </c>
       <c r="C89" t="n">
-        <v>0.006186019834156428</v>
+        <v>0.01136994981618595</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004794549942016601</v>
+        <v>0.003198671340942383</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003011718071098381</v>
+        <v>0.0004002810767112965</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
         <v>10</v>
@@ -6579,32 +6579,32 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>-0.3077712455067077</v>
+        <v>-0.3125016940484266</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.3497396389904653</v>
+        <v>-0.2991684262729487</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.3136758735674319</v>
+        <v>-0.2924978648625166</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.3000134507706183</v>
+        <v>-0.3039265454219164</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.3173489015695425</v>
+        <v>-0.2960626042643625</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.3177098220809532</v>
+        <v>-0.3008314269740341</v>
       </c>
       <c r="T89" t="n">
-        <v>0.01705431932008751</v>
+        <v>0.006938737502293671</v>
       </c>
       <c r="U89" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -6612,16 +6612,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3846254348754883</v>
+        <v>0.4241374015808105</v>
       </c>
       <c r="C90" t="n">
-        <v>0.004365098786974369</v>
+        <v>0.01154431276809966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00122532844543457</v>
+        <v>0.002598905563354492</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00100047689907618</v>
+        <v>0.0004899014520661859</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>10</v>
@@ -6648,32 +6648,32 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>-0.3100533037149655</v>
+        <v>-0.2988146553279313</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.3176839292784934</v>
+        <v>-0.2771885911394354</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.2959253853007161</v>
+        <v>-0.2775669224389767</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.2955897413641194</v>
+        <v>-0.2946082358295001</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.3140821284006513</v>
+        <v>-0.2957701226788438</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.3066668976117891</v>
+        <v>-0.2887897054829375</v>
       </c>
       <c r="T90" t="n">
-        <v>0.009229429646051876</v>
+        <v>0.009419319001713859</v>
       </c>
       <c r="U90" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91">
@@ -6681,16 +6681,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7809445858001709</v>
+        <v>0.8594680309295655</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01756261785304257</v>
+        <v>0.01246585165423403</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002818679809570312</v>
+        <v>0.002998590469360352</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003732462636224509</v>
+        <v>7.231593555499601e-07</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>10</v>
@@ -6717,32 +6717,32 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>-0.3216336220657633</v>
+        <v>-0.3082543376393527</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.3348252590820341</v>
+        <v>-0.2881082442281151</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.307106282245488</v>
+        <v>-0.2860592178798219</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.2973784391977935</v>
+        <v>-0.2975279697546488</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.3229332674671858</v>
+        <v>-0.2990384648654033</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.316775374011653</v>
+        <v>-0.2957976468734683</v>
       </c>
       <c r="T91" t="n">
-        <v>0.01309238704571907</v>
+        <v>0.008032807425471047</v>
       </c>
       <c r="U91" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
@@ -6750,16 +6750,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5289757728576661</v>
+        <v>1.086928367614746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01615426524848108</v>
+        <v>0.02649075590078184</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.003397893905639648</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.00048904550986625</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H92" t="n">
         <v>22</v>
@@ -6786,32 +6786,32 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>-0.3316436824967704</v>
+        <v>-0.3922807041488645</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.3785879132466586</v>
+        <v>-0.3678811700262499</v>
       </c>
       <c r="P92" t="n">
-        <v>-0.3901862975503043</v>
+        <v>-0.3682391353285056</v>
       </c>
       <c r="Q92" t="n">
-        <v>-0.3489693042801051</v>
+        <v>-0.3665644728212641</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.3722004932525668</v>
+        <v>-0.3874610315404499</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.3643175381652811</v>
+        <v>-0.3764853027730668</v>
       </c>
       <c r="T92" t="n">
-        <v>0.02115715682993499</v>
+        <v>0.01104911373259309</v>
       </c>
       <c r="U92" t="n">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
@@ -6819,16 +6819,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5506036281585693</v>
+        <v>1.113911008834839</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01282584585602661</v>
+        <v>0.01233139863600588</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002019071578979492</v>
+        <v>0.003797721862792969</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003117214850527233</v>
+        <v>0.0003998041259587731</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H93" t="n">
         <v>22</v>
@@ -6855,32 +6855,32 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>-0.3316436824967704</v>
+        <v>-0.3922807041239179</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.3785879132466586</v>
+        <v>-0.3678811700311152</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.3901862975503043</v>
+        <v>-0.3682391357399331</v>
       </c>
       <c r="Q93" t="n">
-        <v>-0.3489693042801051</v>
+        <v>-0.3665644733006293</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.3722004932525668</v>
+        <v>-0.3874610316105892</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.3643175381652811</v>
+        <v>-0.3764853029612369</v>
       </c>
       <c r="T93" t="n">
-        <v>0.02115715682993499</v>
+        <v>0.0110491135911433</v>
       </c>
       <c r="U93" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
@@ -6888,16 +6888,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8855620384216308</v>
+        <v>0.9600062847137452</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02376600181748754</v>
+        <v>0.01828165186206009</v>
       </c>
       <c r="D94" t="n">
-        <v>0.003629112243652344</v>
+        <v>0.002998781204223633</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004489970200567809</v>
+        <v>7.136645101116068e-07</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H94" t="n">
         <v>22</v>
@@ -6924,32 +6924,32 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>-0.2991920009121945</v>
+        <v>-0.3135576083990645</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.3314582588463681</v>
+        <v>-0.2926273120955151</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.3211514360219171</v>
+        <v>-0.3128537831594072</v>
       </c>
       <c r="Q94" t="n">
-        <v>-0.3207666865992787</v>
+        <v>-0.3074906057119182</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.3233909778933168</v>
+        <v>-0.3225144893382201</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.3191918720546151</v>
+        <v>-0.309808759740825</v>
       </c>
       <c r="T94" t="n">
-        <v>0.01071831621361277</v>
+        <v>0.009852284808860143</v>
       </c>
       <c r="U94" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
@@ -6957,16 +6957,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.761298084259033</v>
+        <v>1.978775691986084</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01064876351879067</v>
+        <v>0.02164747075039373</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00202031135559082</v>
+        <v>0.00339813232421875</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00404062271118164</v>
+        <v>0.0004897263263813393</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H95" t="n">
         <v>22</v>
@@ -6993,32 +6993,32 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>-0.2998733200428437</v>
+        <v>-0.3142200739690452</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.3319307400929501</v>
+        <v>-0.2941298184614471</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.3211756541287915</v>
+        <v>-0.3145153140735639</v>
       </c>
       <c r="Q95" t="n">
-        <v>-0.3213140259170501</v>
+        <v>-0.309188167527948</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.3241076637497917</v>
+        <v>-0.324025192825976</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.3196802807862855</v>
+        <v>-0.311215713371596</v>
       </c>
       <c r="T95" t="n">
-        <v>0.01064797099552595</v>
+        <v>0.009798316777006752</v>
       </c>
       <c r="U95" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
@@ -7026,16 +7026,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7250772953033447</v>
+        <v>0.8256893157958984</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01564147552665349</v>
+        <v>0.03146166814421499</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003208589553833008</v>
+        <v>0.002998018264770508</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003929717175174609</v>
+        <v>0.0006312036238892217</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H96" t="n">
         <v>22</v>
@@ -7062,32 +7062,32 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>-0.3043670518881141</v>
+        <v>-0.3101132529414089</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.3571630163261126</v>
+        <v>-0.2932546665504739</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.3350861823295793</v>
+        <v>-0.3072104647874961</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.3155594446671893</v>
+        <v>-0.3031768884225127</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.3205542109262394</v>
+        <v>-0.3058671409848175</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.3265459812274469</v>
+        <v>-0.3039244827373419</v>
       </c>
       <c r="T96" t="n">
-        <v>0.01821454406055346</v>
+        <v>0.005784053085169319</v>
       </c>
       <c r="U96" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97">
@@ -7095,16 +7095,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.463594245910645</v>
+        <v>1.741724252700806</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04630517113849369</v>
+        <v>0.0826609629851925</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002434062957763672</v>
+        <v>0.003597211837768555</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002961726124322015</v>
+        <v>0.0004897461046175965</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -7131,32 +7131,32 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>-0.3046865516671757</v>
+        <v>-0.3187892096747759</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.3593143328339304</v>
+        <v>-0.2991222127351774</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.3388931996001331</v>
+        <v>-0.3069926164559645</v>
       </c>
       <c r="Q97" t="n">
-        <v>-0.3195320491940805</v>
+        <v>-0.3064907890105919</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.3245794172687676</v>
+        <v>-0.3072307680249241</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.3294011101128175</v>
+        <v>-0.3077251191802867</v>
       </c>
       <c r="T97" t="n">
-        <v>0.01852758560018689</v>
+        <v>0.006304420862336462</v>
       </c>
       <c r="U97" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
@@ -7164,16 +7164,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9748143672943115</v>
+        <v>1.122107172012329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.02318180556086549</v>
+        <v>0.01659591924672</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002828550338745117</v>
+        <v>0.003797531127929688</v>
       </c>
       <c r="E98" t="n">
-        <v>0.003732432048627229</v>
+        <v>0.0007482014303397028</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>22</v>
@@ -7200,32 +7200,32 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>-0.2915304245760048</v>
+        <v>-0.3274484697231441</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.3482382052596178</v>
+        <v>-0.3067274109643143</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.3056093522916029</v>
+        <v>-0.2925062278080467</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.3204227187052075</v>
+        <v>-0.3245304688511263</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.338411502084231</v>
+        <v>-0.3054588711134043</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.3208424405833328</v>
+        <v>-0.3113342896920072</v>
       </c>
       <c r="T98" t="n">
-        <v>0.02073941788958022</v>
+        <v>0.01299265740229586</v>
       </c>
       <c r="U98" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
@@ -7233,16 +7233,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.013614511489868</v>
+        <v>2.363056421279907</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02662821520023577</v>
+        <v>0.0151975817691855</v>
       </c>
       <c r="D99" t="n">
-        <v>0.007256746292114258</v>
+        <v>0.004389667510986328</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003738425717602998</v>
+        <v>0.0004810365913864078</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H99" t="n">
         <v>22</v>
@@ -7269,32 +7269,32 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>-0.2915101172671433</v>
+        <v>-0.3277548903661083</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.3500060255836451</v>
+        <v>-0.3078630596759371</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.3075755994993559</v>
+        <v>-0.2937889636052818</v>
       </c>
       <c r="Q99" t="n">
-        <v>-0.320867498161282</v>
+        <v>-0.3251808172269161</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.3374366628941732</v>
+        <v>-0.3060727444631934</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.3214791806811199</v>
+        <v>-0.3121320950674874</v>
       </c>
       <c r="T99" t="n">
-        <v>0.02078581538341264</v>
+        <v>0.01269450075974948</v>
       </c>
       <c r="U99" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
@@ -7302,16 +7302,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.800231647491455</v>
+        <v>0.9518252849578858</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01484551556373436</v>
+        <v>0.01931895697050993</v>
       </c>
       <c r="D100" t="n">
-        <v>0.007238245010375977</v>
+        <v>0.002998685836791992</v>
       </c>
       <c r="E100" t="n">
-        <v>0.003731317189268222</v>
+        <v>7.325311420315369e-07</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>22</v>
@@ -7338,32 +7338,32 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>-0.3011716170416033</v>
+        <v>-0.3084143852441155</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.3486498454532143</v>
+        <v>-0.2996201079909401</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.3206111832660983</v>
+        <v>-0.2909308577545026</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.3014825789336565</v>
+        <v>-0.2911927332816631</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.3280211845877366</v>
+        <v>-0.3096300777235026</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.3199872818564619</v>
+        <v>-0.2999576323989448</v>
       </c>
       <c r="T100" t="n">
-        <v>0.01779285626698981</v>
+        <v>0.008043542838631897</v>
       </c>
       <c r="U100" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
@@ -7371,16 +7371,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.710208082199097</v>
+        <v>1.989988803863525</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03306771435511615</v>
+        <v>0.05916036258077906</v>
       </c>
       <c r="D101" t="n">
-        <v>0.006058549880981446</v>
+        <v>0.003998327255249024</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004237772244072823</v>
+        <v>0.0006319574218284538</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>22</v>
@@ -7407,32 +7407,32 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>-0.3047108257954279</v>
+        <v>-0.3116844021444857</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.3525461293764778</v>
+        <v>-0.3043343003339227</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.3242173601908517</v>
+        <v>-0.2954523690097119</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.3042653801147501</v>
+        <v>-0.2895008482527549</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.3305652423672308</v>
+        <v>-0.3149765998403989</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.3232609875689477</v>
+        <v>-0.3031897039162548</v>
       </c>
       <c r="T101" t="n">
-        <v>0.01798236870834899</v>
+        <v>0.009588034577605476</v>
       </c>
       <c r="U101" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
@@ -7440,16 +7440,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6957434177398681</v>
+        <v>0.8212920665740967</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0175225384980669</v>
+        <v>0.03496644258485157</v>
       </c>
       <c r="D102" t="n">
-        <v>0.003631067276000976</v>
+        <v>0.002998208999633789</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003692789570472959</v>
+        <v>8.609519045480627e-07</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H102" t="n">
         <v>22</v>
@@ -7476,32 +7476,32 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>-0.3049873550254592</v>
+        <v>-0.3159832572339593</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.3395874612201851</v>
+        <v>-0.2868308486504304</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.3190158789415827</v>
+        <v>-0.2876553023198896</v>
       </c>
       <c r="Q102" t="n">
-        <v>-0.3068429434415025</v>
+        <v>-0.3057182882593935</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.3221829416081671</v>
+        <v>-0.2922938532942319</v>
       </c>
       <c r="S102" t="n">
-        <v>-0.3185233160473794</v>
+        <v>-0.2976963099515809</v>
       </c>
       <c r="T102" t="n">
-        <v>0.01246584962455437</v>
+        <v>0.01137392806694783</v>
       </c>
       <c r="U102" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
@@ -7509,16 +7509,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.360366773605347</v>
+        <v>1.716062593460083</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01609415658567777</v>
+        <v>0.02114026231567242</v>
       </c>
       <c r="D103" t="n">
-        <v>0.009668588638305664</v>
+        <v>0.003798294067382813</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0008122068950528019</v>
+        <v>0.0003991370666522805</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>22</v>
@@ -7545,32 +7545,32 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>-0.3072470905795868</v>
+        <v>-0.3257685282821049</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.3451426584377063</v>
+        <v>-0.2973797825525603</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.3277893576228949</v>
+        <v>-0.2945022426034559</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.3150078389636268</v>
+        <v>-0.3089870436509543</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.326736885778908</v>
+        <v>-0.2934341133473649</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.3243847662765446</v>
+        <v>-0.304014342087288</v>
       </c>
       <c r="T103" t="n">
-        <v>0.01288130808178502</v>
+        <v>0.01220172967115165</v>
       </c>
       <c r="U103" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104">
@@ -7578,16 +7578,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5154481887817383</v>
+        <v>0.5952927589416503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.008195948771903759</v>
+        <v>0.009368597312576877</v>
       </c>
       <c r="D104" t="n">
-        <v>0.004828882217407226</v>
+        <v>0.002798843383789063</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003942773012441236</v>
+        <v>0.000400091336441226</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H104" t="n">
         <v>22</v>
@@ -7614,32 +7614,32 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>-0.2960374390132819</v>
+        <v>-0.3116710274327071</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.3398709820227411</v>
+        <v>-0.2875013931549059</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.3093037331749588</v>
+        <v>-0.2856579038311042</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.3167743421725347</v>
+        <v>-0.3069668836731783</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.3109652532208491</v>
+        <v>-0.2969775183985991</v>
       </c>
       <c r="S104" t="n">
-        <v>-0.3145903499208731</v>
+        <v>-0.2977549452980989</v>
       </c>
       <c r="T104" t="n">
-        <v>0.01434698802866329</v>
+        <v>0.01030141045677586</v>
       </c>
       <c r="U104" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
@@ -7647,16 +7647,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.074884700775147</v>
+        <v>1.281251049041748</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04226680284677194</v>
+        <v>0.02934976764467605</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003625917434692383</v>
+        <v>0.003997230529785156</v>
       </c>
       <c r="E105" t="n">
-        <v>0.004489126014382878</v>
+        <v>0.000632486351220711</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H105" t="n">
         <v>22</v>
@@ -7683,29 +7683,29 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>-0.299204511970414</v>
+        <v>-0.3195419443255572</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.3436452927083981</v>
+        <v>-0.2914977976595733</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.3164387223231103</v>
+        <v>-0.2901865096646727</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.3194846538529812</v>
+        <v>-0.3078347844805308</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.317738943516788</v>
+        <v>-0.2990308718073348</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.3193024248743384</v>
+        <v>-0.3016183815875338</v>
       </c>
       <c r="T105" t="n">
-        <v>0.01419281361209401</v>
+        <v>0.01095177508642449</v>
       </c>
       <c r="U105" t="n">
         <v>86</v>
@@ -7716,16 +7716,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5125399589538574</v>
+        <v>0.5815862655639649</v>
       </c>
       <c r="C106" t="n">
-        <v>0.009931306495665839</v>
+        <v>0.01636905426041219</v>
       </c>
       <c r="D106" t="n">
-        <v>0.003635549545288086</v>
+        <v>0.003007173538208008</v>
       </c>
       <c r="E106" t="n">
-        <v>0.003695908087569595</v>
+        <v>1.610764107646654e-05</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H106" t="n">
         <v>22</v>
@@ -7752,32 +7752,32 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>-0.303063663281316</v>
+        <v>-0.2964505359427891</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.3336566726688203</v>
+        <v>-0.2942249643319707</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.3037848208507571</v>
+        <v>-0.287666619871931</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.3015821659022194</v>
+        <v>-0.3034585052509938</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.3179106641906748</v>
+        <v>-0.2999789418800343</v>
       </c>
       <c r="S106" t="n">
-        <v>-0.3119995973787575</v>
+        <v>-0.2963559134555438</v>
       </c>
       <c r="T106" t="n">
-        <v>0.01232741636468542</v>
+        <v>0.005359605689638434</v>
       </c>
       <c r="U106" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107">
@@ -7785,16 +7785,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.068162536621094</v>
+        <v>1.226576519012451</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01721174909647576</v>
+        <v>0.01753735787655498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00321507453918457</v>
+        <v>0.003597545623779297</v>
       </c>
       <c r="E107" t="n">
-        <v>0.003937648738804094</v>
+        <v>0.0004907000365444024</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>22</v>
@@ -7821,32 +7821,32 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>-0.3043626710152822</v>
+        <v>-0.3029533289176695</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.3402216668887721</v>
+        <v>-0.2984629590991139</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.3114335563460742</v>
+        <v>-0.2961662755272486</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.3055246613772055</v>
+        <v>-0.3018341957469745</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.322321093112698</v>
+        <v>-0.3069693515405978</v>
       </c>
       <c r="S107" t="n">
-        <v>-0.3167727297480064</v>
+        <v>-0.3012772221663208</v>
       </c>
       <c r="T107" t="n">
-        <v>0.01333920808367579</v>
+        <v>0.003729926068539655</v>
       </c>
       <c r="U107" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
@@ -7854,16 +7854,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4438778400421143</v>
+        <v>0.5081187725067139</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01069186812682965</v>
+        <v>0.01797799805954926</v>
       </c>
       <c r="D108" t="n">
-        <v>0.002424907684326172</v>
+        <v>0.002998733520507813</v>
       </c>
       <c r="E108" t="n">
-        <v>0.002944333607709939</v>
+        <v>7.921813834112239e-07</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H108" t="n">
         <v>22</v>
@@ -7890,32 +7890,32 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>-0.3136395694735018</v>
+        <v>-0.3017237474610608</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.3348977701955389</v>
+        <v>-0.2857765955610313</v>
       </c>
       <c r="P108" t="n">
-        <v>-0.3140340010055159</v>
+        <v>-0.2731538542664348</v>
       </c>
       <c r="Q108" t="n">
-        <v>-0.3088954067240926</v>
+        <v>-0.3003595318837657</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.3085551604825986</v>
+        <v>-0.2990701232949076</v>
       </c>
       <c r="S108" t="n">
-        <v>-0.3160043815762495</v>
+        <v>-0.2920167704934401</v>
       </c>
       <c r="T108" t="n">
-        <v>0.009720733385347149</v>
+        <v>0.01103019716035829</v>
       </c>
       <c r="U108" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
@@ -7923,16 +7923,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9267274856567382</v>
+        <v>1.050842046737671</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03891026498521178</v>
+        <v>0.01584444903498283</v>
       </c>
       <c r="D109" t="n">
-        <v>0.001608133316040039</v>
+        <v>0.003192377090454101</v>
       </c>
       <c r="E109" t="n">
-        <v>0.003216266632080078</v>
+        <v>0.0004028434327347151</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H109" t="n">
         <v>22</v>
@@ -7959,32 +7959,2516 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.3, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.3118987349399459</v>
+      </c>
+      <c r="O109" t="n">
+        <v>-0.2931085902923083</v>
+      </c>
+      <c r="P109" t="n">
+        <v>-0.274734864159545</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>-0.3027794799672203</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-0.3019613276133168</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-0.2968965993944673</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.01257628997971848</v>
+      </c>
+      <c r="U109" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7855099678039551</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.005625801085908454</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.003397989273071289</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0004901362365186157</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>50</v>
+      </c>
+      <c r="L110" t="n">
+        <v>66</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.3365085235497619</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-0.3334877204154473</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-0.3135506513963652</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-0.3347298813460228</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.3443533267711277</v>
+      </c>
+      <c r="S110" t="n">
+        <v>-0.3325260206957449</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.01021363800168777</v>
+      </c>
+      <c r="U110" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.498779821395874</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01430471078095668</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.004196834564208984</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.000978995046522001</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>100</v>
+      </c>
+      <c r="L111" t="n">
+        <v>66</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.3365116834155089</v>
+      </c>
+      <c r="O111" t="n">
+        <v>-0.3334888861931563</v>
+      </c>
+      <c r="P111" t="n">
+        <v>-0.3135486335270917</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-0.3347330742907628</v>
+      </c>
+      <c r="R111" t="n">
+        <v>-0.3443592649143148</v>
+      </c>
+      <c r="S111" t="n">
+        <v>-0.3325283084681669</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.01021616923478535</v>
+      </c>
+      <c r="U111" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6197373390197753</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.01500460815157578</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.002998542785644531</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.623107774177865e-07</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>50</v>
+      </c>
+      <c r="K112" t="n">
+        <v>50</v>
+      </c>
+      <c r="L112" t="n">
+        <v>66</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.3276366663522823</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.3054030905480913</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-0.3096620812380022</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-0.3197415900607697</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.3321228276155369</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.3189132511629366</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.01019201268416979</v>
+      </c>
+      <c r="U112" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.245827102661133</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.02537572897706891</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.003398609161376953</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0004896296986777278</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>50</v>
+      </c>
+      <c r="K113" t="n">
+        <v>100</v>
+      </c>
+      <c r="L113" t="n">
+        <v>66</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.3314409654602185</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-0.3097399072386983</v>
+      </c>
+      <c r="P113" t="n">
+        <v>-0.3122976567041938</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-0.3228577890322455</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-0.3344242659613869</v>
+      </c>
+      <c r="S113" t="n">
+        <v>-0.3221521168793486</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.009884934574843069</v>
+      </c>
+      <c r="U113" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.562670087814331</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.008716867030134154</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.003397798538208008</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0004898047660684487</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>120</v>
+      </c>
+      <c r="K114" t="n">
+        <v>50</v>
+      </c>
+      <c r="L114" t="n">
+        <v>66</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.3347385111741474</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-0.2964673696235879</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-0.310923223670542</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-0.3193607949607539</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.3110127795912184</v>
+      </c>
+      <c r="S114" t="n">
+        <v>-0.31450053580405</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.01251682431085334</v>
+      </c>
+      <c r="U114" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.117448711395264</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.009450409488737075</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.003198719024658203</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0003994228839446615</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>120</v>
+      </c>
+      <c r="K115" t="n">
+        <v>100</v>
+      </c>
+      <c r="L115" t="n">
+        <v>66</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.3409418855694835</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-0.2973894326393819</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-0.3165255406831192</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>-0.3206607303856745</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-0.3166736201508227</v>
+      </c>
+      <c r="S115" t="n">
+        <v>-0.3184382418856964</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.01386490620685658</v>
+      </c>
+      <c r="U115" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.661336088180542</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.01347454043096327</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.003198146820068359</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0003995901360427651</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>50</v>
+      </c>
+      <c r="L116" t="n">
+        <v>66</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.3446002778064052</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-0.306734544966325</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-0.3094661629171335</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.3417709300466519</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.3298213713832446</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-0.326478657423952</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.01582830003474992</v>
+      </c>
+      <c r="U116" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.329988813400269</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.03517591660041881</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.003397989273071289</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0004892594719838887</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+      <c r="I117" t="n">
+        <v>5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" t="n">
+        <v>100</v>
+      </c>
+      <c r="L117" t="n">
+        <v>66</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.3458316721778653</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.3074816120037848</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-0.3109369293936519</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-0.3422218002127118</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.3314349454398695</v>
+      </c>
+      <c r="S117" t="n">
+        <v>-0.3275813918455767</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.01576897869026222</v>
+      </c>
+      <c r="U117" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5732467174530029</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.008636401946163148</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.002997493743896484</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0006303760828606374</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>50</v>
+      </c>
+      <c r="K118" t="n">
+        <v>50</v>
+      </c>
+      <c r="L118" t="n">
+        <v>66</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.3330016352748842</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-0.2877606965293195</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-0.3164093914713793</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-0.3241567127286117</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.3178256170715267</v>
+      </c>
+      <c r="S118" t="n">
+        <v>-0.3158308106151443</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.01520791359059763</v>
+      </c>
+      <c r="U118" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.155884695053101</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.01810673271339054</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.002998256683349609</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.14361702286011e-07</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>50</v>
+      </c>
+      <c r="K119" t="n">
+        <v>100</v>
+      </c>
+      <c r="L119" t="n">
+        <v>66</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.3368596092795646</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-0.2942680918057605</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-0.3189491491446453</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>-0.3251521000186717</v>
+      </c>
+      <c r="R119" t="n">
+        <v>-0.3234874750092863</v>
+      </c>
+      <c r="S119" t="n">
+        <v>-0.3197432850515857</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.01404178703453124</v>
+      </c>
+      <c r="U119" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5420645236968994</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.02030054767362782</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.002998924255371094</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.000631505598126101</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>120</v>
+      </c>
+      <c r="K120" t="n">
+        <v>50</v>
+      </c>
+      <c r="L120" t="n">
+        <v>66</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.3254932444950939</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-0.2919149294467453</v>
+      </c>
+      <c r="P120" t="n">
+        <v>-0.2840844163617961</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>-0.3287532660380213</v>
+      </c>
+      <c r="R120" t="n">
+        <v>-0.2959087715512698</v>
+      </c>
+      <c r="S120" t="n">
+        <v>-0.3052309255785853</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.01830439963130092</v>
+      </c>
+      <c r="U120" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.112311935424805</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.03150815549346615</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.003198099136352539</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0004003291579892818</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>120</v>
+      </c>
+      <c r="K121" t="n">
+        <v>100</v>
+      </c>
+      <c r="L121" t="n">
+        <v>66</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.3361755132004335</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-0.2945852268226163</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-0.2948432657798921</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>-0.33018356412072</v>
+      </c>
+      <c r="R121" t="n">
+        <v>-0.3063295122156264</v>
+      </c>
+      <c r="S121" t="n">
+        <v>-0.3124234164278577</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.0175726111941945</v>
+      </c>
+      <c r="U121" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4914956092834473</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.02212583299071112</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.002798938751220703</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0003996615015020801</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" t="n">
+        <v>20</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>50</v>
+      </c>
+      <c r="L122" t="n">
+        <v>66</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>-0.3204889556494611</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-0.3123779192801662</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-0.2734583018912754</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>-0.3138969935071088</v>
+      </c>
+      <c r="R122" t="n">
+        <v>-0.3074403795495061</v>
+      </c>
+      <c r="S122" t="n">
+        <v>-0.3055325099755035</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.01657054175963279</v>
+      </c>
+      <c r="U122" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9612052917480469</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.01423754840399037</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.00360102653503418</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0004873263952535826</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" t="n">
+        <v>20</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>100</v>
+      </c>
+      <c r="L123" t="n">
+        <v>66</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.3317363368717618</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-0.3156410290171209</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-0.2768706081410707</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>-0.3131117395460645</v>
+      </c>
+      <c r="R123" t="n">
+        <v>-0.311968214824267</v>
+      </c>
+      <c r="S123" t="n">
+        <v>-0.309865585680057</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.01797394008261505</v>
+      </c>
+      <c r="U123" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4621138095855713</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.005779102958518989</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.002798795700073242</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0004001886069678284</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="n">
+        <v>20</v>
+      </c>
+      <c r="J124" t="n">
+        <v>50</v>
+      </c>
+      <c r="K124" t="n">
+        <v>50</v>
+      </c>
+      <c r="L124" t="n">
+        <v>66</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.3193402639967725</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-0.2944090256706988</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-0.2900238323076876</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>-0.3227523140657058</v>
+      </c>
+      <c r="R124" t="n">
+        <v>-0.3049785986726797</v>
+      </c>
+      <c r="S124" t="n">
+        <v>-0.3063008069427089</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.01302906080024634</v>
+      </c>
+      <c r="U124" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9648024082183838</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.02290096550245841</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.002998781204223633</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.78041453115716e-07</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20</v>
+      </c>
+      <c r="J125" t="n">
+        <v>50</v>
+      </c>
+      <c r="K125" t="n">
+        <v>100</v>
+      </c>
+      <c r="L125" t="n">
+        <v>66</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.3260988986042843</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-0.2997105956481371</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-0.2932853959608978</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>-0.3246284432726749</v>
+      </c>
+      <c r="R125" t="n">
+        <v>-0.3034521078233895</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-0.3094350882618767</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.01341413422141118</v>
+      </c>
+      <c r="U125" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4221365928649902</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.01010427110656468</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.002798938751220703</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.000400495770460352</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+      <c r="I126" t="n">
+        <v>20</v>
+      </c>
+      <c r="J126" t="n">
+        <v>120</v>
+      </c>
+      <c r="K126" t="n">
+        <v>50</v>
+      </c>
+      <c r="L126" t="n">
+        <v>66</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.3087371273725749</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-0.2841885673996158</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-0.2843853399225307</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>-0.2904942877557757</v>
+      </c>
+      <c r="R126" t="n">
+        <v>-0.3074747614555426</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-0.295056016781208</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.01090112084773649</v>
+      </c>
+      <c r="U126" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9264253139495849</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.03546849989455114</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.003998661041259765</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.001096062818695548</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+      <c r="I127" t="n">
+        <v>20</v>
+      </c>
+      <c r="J127" t="n">
+        <v>120</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100</v>
+      </c>
+      <c r="L127" t="n">
+        <v>66</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.3237767893134632</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-0.2872094430872731</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-0.2906234365874675</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>-0.3023553693769996</v>
+      </c>
+      <c r="R127" t="n">
+        <v>-0.3158968988952611</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-0.3039723874520929</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.01411533808779869</v>
+      </c>
+      <c r="U127" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6172188282012939</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.02237066491895793</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.003198146820068359</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0007479461464987753</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>22</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>50</v>
+      </c>
+      <c r="L128" t="n">
+        <v>66</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.3890317722019807</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-0.3670944572795936</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-0.3618530226599255</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>-0.3689577156758734</v>
+      </c>
+      <c r="R128" t="n">
+        <v>-0.3831939558175626</v>
+      </c>
+      <c r="S128" t="n">
+        <v>-0.3740261847269871</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.01030669472602024</v>
+      </c>
+      <c r="U128" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6529955863952637</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.05279037282237072</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.003599786758422852</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0008002721189991341</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H129" t="n">
+        <v>22</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>100</v>
+      </c>
+      <c r="L129" t="n">
+        <v>66</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.3890317722019807</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.3670944572795936</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-0.3618530226599255</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>-0.3689577156758734</v>
+      </c>
+      <c r="R129" t="n">
+        <v>-0.3831939558175626</v>
+      </c>
+      <c r="S129" t="n">
+        <v>-0.3740261847269871</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.01030669472602024</v>
+      </c>
+      <c r="U129" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9927861213684082</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0309818332939913</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.003398370742797851</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0008002759233629314</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>22</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>50</v>
+      </c>
+      <c r="K130" t="n">
+        <v>50</v>
+      </c>
+      <c r="L130" t="n">
+        <v>66</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.3569208307284392</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-0.3020102121284983</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-0.3197387681117781</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>-0.3204855762464871</v>
+      </c>
+      <c r="R130" t="n">
+        <v>-0.3403441228344186</v>
+      </c>
+      <c r="S130" t="n">
+        <v>-0.3278999020099242</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.0189152071667225</v>
+      </c>
+      <c r="U130" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.967384052276611</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.05750247078224825</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.004196977615356446</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0004006166220560933</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H131" t="n">
+        <v>22</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>50</v>
+      </c>
+      <c r="K131" t="n">
+        <v>100</v>
+      </c>
+      <c r="L131" t="n">
+        <v>66</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>-0.3570267217873459</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.3024578265887228</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-0.3200501150443315</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>-0.3204548168414205</v>
+      </c>
+      <c r="R131" t="n">
+        <v>-0.34025431312785</v>
+      </c>
+      <c r="S131" t="n">
+        <v>-0.3280487586779341</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.01878957137983005</v>
+      </c>
+      <c r="U131" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9078382015228271</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.03492781042844276</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.004598093032836914</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.001624185313304514</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>22</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>120</v>
+      </c>
+      <c r="K132" t="n">
+        <v>50</v>
+      </c>
+      <c r="L132" t="n">
+        <v>66</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>-0.3346499906205473</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.318520041982013</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-0.3188826498927583</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>-0.3182109296884507</v>
+      </c>
+      <c r="R132" t="n">
+        <v>-0.3083599598496336</v>
+      </c>
+      <c r="S132" t="n">
+        <v>-0.3197247144066806</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.008442432927440327</v>
+      </c>
+      <c r="U132" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.663571453094483</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.05672313550890474</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.003397464752197266</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0004895902852585749</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H133" t="n">
+        <v>22</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>120</v>
+      </c>
+      <c r="K133" t="n">
+        <v>100</v>
+      </c>
+      <c r="L133" t="n">
+        <v>66</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>-0.3358672683835634</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-0.3214314321146907</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-0.3211848061669856</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>-0.3191716448290133</v>
+      </c>
+      <c r="R133" t="n">
+        <v>-0.3082332382339152</v>
+      </c>
+      <c r="S133" t="n">
+        <v>-0.3211776779456336</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.008802626852698713</v>
+      </c>
+      <c r="U133" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.18346848487854</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.08635541562224787</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.00359807014465332</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.00119943621617921</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>22</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>50</v>
+      </c>
+      <c r="L134" t="n">
+        <v>66</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>-0.3501360386312456</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.2944633892886534</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-0.3071397444920786</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>-0.3026158097798513</v>
+      </c>
+      <c r="R134" t="n">
+        <v>-0.3388918831459131</v>
+      </c>
+      <c r="S134" t="n">
+        <v>-0.3186493730675484</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.02179760461881829</v>
+      </c>
+      <c r="U134" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.360541439056397</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.06023923146884134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.004796171188354492</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0003994227131679735</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>22</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>100</v>
+      </c>
+      <c r="L135" t="n">
+        <v>66</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>-0.3507759032003779</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.2944741729699094</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-0.30709897462014</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>-0.3019240179275982</v>
+      </c>
+      <c r="R135" t="n">
+        <v>-0.3397609471276229</v>
+      </c>
+      <c r="S135" t="n">
+        <v>-0.3188068031691297</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.02224984532574299</v>
+      </c>
+      <c r="U135" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9454150676727295</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.03246941110818874</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.003200054168701172</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0004035244981140643</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>22</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>50</v>
+      </c>
+      <c r="K136" t="n">
+        <v>50</v>
+      </c>
+      <c r="L136" t="n">
+        <v>66</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>-0.3270639580919271</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.3010251957135812</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-0.3222683806252248</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>-0.3096704513862355</v>
+      </c>
+      <c r="R136" t="n">
+        <v>-0.3139064697415678</v>
+      </c>
+      <c r="S136" t="n">
+        <v>-0.3147868911117073</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.009198221746205798</v>
+      </c>
+      <c r="U136" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.955191564559936</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.02909223216474625</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.003599929809570313</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0004863255701173896</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22</v>
+      </c>
+      <c r="I137" t="n">
+        <v>5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>50</v>
+      </c>
+      <c r="K137" t="n">
+        <v>100</v>
+      </c>
+      <c r="L137" t="n">
+        <v>66</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.3297400680179025</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.3021100907134748</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-0.324345870705085</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>-0.307693991139889</v>
+      </c>
+      <c r="R137" t="n">
+        <v>-0.3155297525882672</v>
+      </c>
+      <c r="S137" t="n">
+        <v>-0.3158839546329237</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.01020309943229864</v>
+      </c>
+      <c r="U137" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7999042987823486</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.03592438785072857</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.003399181365966797</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0004905249224842154</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H138" t="n">
+        <v>22</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>120</v>
+      </c>
+      <c r="K138" t="n">
+        <v>50</v>
+      </c>
+      <c r="L138" t="n">
+        <v>66</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>-0.3292251963554143</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-0.3133783635652466</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-0.3012454512588384</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>-0.3290108915824533</v>
+      </c>
+      <c r="R138" t="n">
+        <v>-0.3177551227537028</v>
+      </c>
+      <c r="S138" t="n">
+        <v>-0.3181230051031311</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.01048144557875407</v>
+      </c>
+      <c r="U138" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.569829368591309</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.03175732384521254</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.003597497940063477</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0004892990793396914</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>22</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" t="n">
+        <v>120</v>
+      </c>
+      <c r="K139" t="n">
+        <v>100</v>
+      </c>
+      <c r="L139" t="n">
+        <v>66</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 5, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>-0.3374607618971464</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.3138910218267792</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-0.3061159484994695</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>-0.3261897302237435</v>
+      </c>
+      <c r="R139" t="n">
+        <v>-0.3261849216444959</v>
+      </c>
+      <c r="S139" t="n">
+        <v>-0.3219684768183269</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.01088261197956573</v>
+      </c>
+      <c r="U139" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6368066787719726</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.02305453363171726</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.003797054290771484</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.001598000543324728</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H140" t="n">
+        <v>22</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>50</v>
+      </c>
+      <c r="L140" t="n">
+        <v>66</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>-0.314715270939822</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-0.3127672625232985</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-0.2921179066429399</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>-0.3156023627143871</v>
+      </c>
+      <c r="R140" t="n">
+        <v>-0.3111287836065045</v>
+      </c>
+      <c r="S140" t="n">
+        <v>-0.3092663172853903</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.008713552129007788</v>
+      </c>
+      <c r="U140" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.271612882614136</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.03883673702926554</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.00439763069152832</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0004897851619666932</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>22</v>
+      </c>
+      <c r="I141" t="n">
+        <v>20</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>100</v>
+      </c>
+      <c r="L141" t="n">
+        <v>66</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 2, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>-0.3221978641553294</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-0.3153301233969281</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-0.2972008802585148</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>-0.3155346508105896</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-0.3109795997365727</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-0.3122486236715869</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.008334578629926943</v>
+      </c>
+      <c r="U141" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6000290393829346</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.03871951266446488</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.002998208999633789</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0006319576053227109</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H142" t="n">
+        <v>22</v>
+      </c>
+      <c r="I142" t="n">
+        <v>20</v>
+      </c>
+      <c r="J142" t="n">
+        <v>50</v>
+      </c>
+      <c r="K142" t="n">
+        <v>50</v>
+      </c>
+      <c r="L142" t="n">
+        <v>66</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>-0.3180840507223455</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-0.2989563129865965</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-0.2849755760289766</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>-0.3204984287587414</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-0.3093819102120887</v>
+      </c>
+      <c r="S142" t="n">
+        <v>-0.3063792557417498</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.01310409699661163</v>
+      </c>
+      <c r="U142" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.210251617431641</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.02589178906388986</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.003798007965087891</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0003994704537945004</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H143" t="n">
+        <v>22</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20</v>
+      </c>
+      <c r="J143" t="n">
+        <v>50</v>
+      </c>
+      <c r="K143" t="n">
+        <v>100</v>
+      </c>
+      <c r="L143" t="n">
+        <v>66</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>-0.3204402673040924</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.30196430628676</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-0.2903437832259935</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>-0.3219465530076024</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-0.3141899038773379</v>
+      </c>
+      <c r="S143" t="n">
+        <v>-0.3097769627403573</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.01199970922872285</v>
+      </c>
+      <c r="U143" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4972920417785645</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.01288465352732773</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.002798748016357422</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0004001619420355638</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H144" t="n">
+        <v>22</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+      <c r="J144" t="n">
+        <v>120</v>
+      </c>
+      <c r="K144" t="n">
+        <v>50</v>
+      </c>
+      <c r="L144" t="n">
+        <v>66</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66}</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>-0.3030548916463588</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-0.2856479139555716</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-0.2786837202031229</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>-0.3009534082477388</v>
+      </c>
+      <c r="R144" t="n">
+        <v>-0.311426022287805</v>
+      </c>
+      <c r="S144" t="n">
+        <v>-0.2959531912681194</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.01199398340187752</v>
+      </c>
+      <c r="U144" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.003579807281494</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.03227461983991882</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.002998161315917969</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.106495129998063e-07</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>friedman_mse</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>22</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20</v>
+      </c>
+      <c r="J145" t="n">
+        <v>120</v>
+      </c>
+      <c r="K145" t="n">
+        <v>100</v>
+      </c>
+      <c r="L145" t="n">
+        <v>66</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
           <t>{'criterion': 'friedman_mse', 'learning_rate': 0.5, 'max_depth': 22, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 100, 'random_state': 66}</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>-0.3171972365273059</v>
-      </c>
-      <c r="O109" t="n">
-        <v>-0.3431652552469953</v>
-      </c>
-      <c r="P109" t="n">
-        <v>-0.3213337509852092</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>-0.3252167886387825</v>
-      </c>
-      <c r="R109" t="n">
-        <v>-0.3203871692786799</v>
-      </c>
-      <c r="S109" t="n">
-        <v>-0.3254600401353945</v>
-      </c>
-      <c r="T109" t="n">
-        <v>0.009214857761076356</v>
-      </c>
-      <c r="U109" t="n">
-        <v>98</v>
+      <c r="N145" t="n">
+        <v>-0.3111520380158412</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-0.291696243231368</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-0.2850441489357109</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>-0.3007153875593037</v>
+      </c>
+      <c r="R145" t="n">
+        <v>-0.3171473994218943</v>
+      </c>
+      <c r="S145" t="n">
+        <v>-0.3011510434328236</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.01187365479378041</v>
+      </c>
+      <c r="U145" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
